--- a/Instrucciones-computador.xlsx
+++ b/Instrucciones-computador.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Etapa 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Etapa 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Etapa-2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Datos" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ALU" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="126">
   <si>
     <t>Assambler inst</t>
   </si>
@@ -288,7 +288,7 @@
     <t>guarda Mem[SP] en PC</t>
   </si>
   <si>
-    <t xml:space="preserve">PUSH A </t>
+    <t>PUSH A</t>
   </si>
   <si>
     <t>PUSH</t>
@@ -8050,7 +8050,7 @@
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JNE </v>
+        <v>JNE Ins</v>
       </c>
       <c r="B66" s="2" t="str">
         <f t="shared" si="4"/>
@@ -8058,6 +8058,9 @@
       </c>
       <c r="C66" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -8157,7 +8160,7 @@
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JGT </v>
+        <v>JGT Ins</v>
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="4"/>
@@ -8165,6 +8168,9 @@
       </c>
       <c r="C67" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -8264,7 +8270,7 @@
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JLT </v>
+        <v>JLT Ins</v>
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" si="4"/>
@@ -8272,6 +8278,9 @@
       </c>
       <c r="C68" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -8371,7 +8380,7 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JGE </v>
+        <v>JGE Ins</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="4"/>
@@ -8379,6 +8388,9 @@
       </c>
       <c r="C69" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -8478,7 +8490,7 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JLE </v>
+        <v>JLE Ins</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="4"/>
@@ -8486,6 +8498,9 @@
       </c>
       <c r="C70" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -8585,7 +8600,7 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JCR </v>
+        <v>JCR Ins</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="4"/>
@@ -8593,6 +8608,9 @@
       </c>
       <c r="C71" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>

--- a/Instrucciones-computador.xlsx
+++ b/Instrucciones-computador.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="131">
   <si>
     <t>Assambler inst</t>
   </si>
@@ -201,10 +201,22 @@
     <t>Op2</t>
   </si>
   <si>
+    <t>Funciona</t>
+  </si>
+  <si>
+    <t>PROBLEMA ASSEMBLY</t>
+  </si>
+  <si>
     <t>MOV A,(B)</t>
   </si>
   <si>
     <t>(B)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
   <si>
     <t>Entrega 2</t>
@@ -268,6 +280,9 @@
   </si>
   <si>
     <t>sub A,1</t>
+  </si>
+  <si>
+    <t>SALTA 1 VEZ, las consecutivas no las hace</t>
   </si>
   <si>
     <t>CALL Dir</t>
@@ -535,6 +550,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -548,9 +566,6 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -571,7 +586,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -9706,6 +9732,8 @@
     <col customWidth="1" min="23" max="23" width="2.57"/>
     <col customWidth="1" min="24" max="24" width="2.71"/>
     <col customWidth="1" min="25" max="25" width="2.57"/>
+    <col customWidth="1" min="26" max="26" width="20.71"/>
+    <col customWidth="1" min="27" max="27" width="22.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9837,6 +9865,12 @@
       <c r="Y2" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
@@ -9910,9 +9944,12 @@
       <c r="Y3" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z3" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
     <row r="4">
@@ -9993,9 +10030,11 @@
       <c r="Y4" s="4">
         <v>0.0</v>
       </c>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="AB4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
     <row r="5">
@@ -10076,8 +10115,11 @@
       <c r="Y5" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z5" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="AB5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
     <row r="6">
@@ -10158,8 +10200,11 @@
       <c r="Y6" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z6" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA6" s="3"/>
-      <c r="AC6" s="3"/>
+      <c r="AB6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
     <row r="7">
@@ -10240,8 +10285,11 @@
       <c r="Y7" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z7" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA7" s="3"/>
-      <c r="AC7" s="3"/>
+      <c r="AB7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
     <row r="8">
@@ -10322,7 +10370,10 @@
       <c r="Y8" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="3"/>
+      <c r="Z8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
     <row r="9">
@@ -10403,7 +10454,10 @@
       <c r="Y9" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="3"/>
+      <c r="Z9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
     <row r="10">
@@ -10484,7 +10538,10 @@
       <c r="Y10" s="3">
         <v>1.0</v>
       </c>
-      <c r="AC10" s="3"/>
+      <c r="Z10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA10" s="3"/>
       <c r="AD10" s="3"/>
     </row>
     <row r="11">
@@ -10565,12 +10622,15 @@
       <c r="Y11" s="2">
         <v>1.0</v>
       </c>
-      <c r="AC11" s="3"/>
+      <c r="Z11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -10583,7 +10643,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="9">
         <v>0.0</v>
@@ -10645,15 +10705,20 @@
       <c r="Y12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC12" s="3"/>
+      <c r="Z12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AD12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -10666,7 +10731,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="9">
         <v>0.0</v>
@@ -10728,15 +10793,20 @@
       <c r="Y13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC13" s="3"/>
+      <c r="Z13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AD13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -10746,7 +10816,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>28</v>
@@ -10811,10 +10881,15 @@
       <c r="Y14" s="1">
         <v>1.0</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC14" s="3"/>
+      <c r="Z14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AD14" s="3"/>
     </row>
     <row r="15">
@@ -10888,14 +10963,18 @@
       <c r="Y15" s="11">
         <v>1.0</v>
       </c>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="11" t="s">
-        <v>62</v>
+      <c r="Z15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC15" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="AD15" s="3"/>
     </row>
     <row r="16">
@@ -10976,8 +11055,11 @@
       <c r="Y16" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z16" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="AB16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
     <row r="17">
@@ -11058,8 +11140,11 @@
       <c r="Y17" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z17" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="AB17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
     <row r="18">
@@ -11140,8 +11225,11 @@
       <c r="Y18" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z18" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA18" s="3"/>
-      <c r="AC18" s="3"/>
+      <c r="AB18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
     <row r="19">
@@ -11218,12 +11306,14 @@
       <c r="Y19" s="12">
         <v>0.0</v>
       </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
     <row r="20">
@@ -11304,7 +11394,10 @@
       <c r="Y20" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="3"/>
+      <c r="Z20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA20" s="3"/>
       <c r="AD20" s="3"/>
     </row>
     <row r="21">
@@ -11381,12 +11474,14 @@
       <c r="Y21" s="15">
         <v>0.0</v>
       </c>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="11" t="s">
+      <c r="Z21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
     </row>
     <row r="22">
@@ -11464,13 +11559,16 @@
       <c r="Y22" s="2">
         <v>1.0</v>
       </c>
+      <c r="Z22" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA22" s="3"/>
-      <c r="AC22" s="3"/>
+      <c r="AB22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="1"/>
@@ -11483,7 +11581,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" s="9">
         <v>0.0</v>
@@ -11545,15 +11643,20 @@
       <c r="Y23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC23" s="3"/>
+      <c r="Z23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AD23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" s="12" t="str">
         <f t="shared" si="1"/>
@@ -11566,7 +11669,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" s="13">
         <v>0.0</v>
@@ -11624,12 +11727,14 @@
       <c r="Y24" s="11">
         <v>0.0</v>
       </c>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="3"/>
+      <c r="Z24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC24" s="12"/>
       <c r="AD24" s="3"/>
     </row>
     <row r="25">
@@ -11711,8 +11816,11 @@
       <c r="Y25" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z25" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA25" s="3"/>
-      <c r="AC25" s="3"/>
+      <c r="AB25" s="3"/>
       <c r="AD25" s="3"/>
     </row>
     <row r="26">
@@ -11794,8 +11902,11 @@
       <c r="Y26" s="2">
         <v>0.0</v>
       </c>
-      <c r="AA26" s="3"/>
-      <c r="AC26" s="3"/>
+      <c r="Z26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
     <row r="27">
@@ -11877,8 +11988,11 @@
       <c r="Y27" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z27" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA27" s="3"/>
-      <c r="AC27" s="3"/>
+      <c r="AB27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
     <row r="28">
@@ -11939,8 +12053,8 @@
       <c r="R28" s="16">
         <v>1.0</v>
       </c>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
       <c r="U28" s="16">
         <v>1.0</v>
       </c>
@@ -11956,12 +12070,16 @@
       <c r="Y28" s="15">
         <v>0.0</v>
       </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="11" t="s">
+      <c r="Z28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
     <row r="29">
@@ -12043,7 +12161,10 @@
       <c r="Y29" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC29" s="3"/>
+      <c r="Z29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA29" s="3"/>
       <c r="AD29" s="3"/>
     </row>
     <row r="30">
@@ -12122,11 +12243,11 @@
         <v>0.0</v>
       </c>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="11" t="s">
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
     <row r="31">
@@ -12205,13 +12326,16 @@
       <c r="Y31" s="2">
         <v>1.0</v>
       </c>
+      <c r="Z31" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA31" s="3"/>
-      <c r="AC31" s="3"/>
+      <c r="AB31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12224,7 +12348,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F32" s="9">
         <v>0.0</v>
@@ -12286,15 +12410,20 @@
       <c r="Y32" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC32" s="3"/>
+      <c r="Z32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AD32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B33" s="12" t="str">
         <f t="shared" si="1"/>
@@ -12307,7 +12436,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F33" s="13">
         <v>0.0</v>
@@ -12361,12 +12490,16 @@
       <c r="Y33" s="11">
         <v>0.0</v>
       </c>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="3"/>
+      <c r="Z33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC33" s="12"/>
       <c r="AD33" s="3"/>
     </row>
     <row r="34">
@@ -12448,8 +12581,11 @@
       <c r="Y34" s="2">
         <v>0.0</v>
       </c>
-      <c r="AA34" s="3"/>
-      <c r="AC34" s="3"/>
+      <c r="Z34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="3"/>
       <c r="AD34" s="3"/>
     </row>
     <row r="35">
@@ -12531,8 +12667,11 @@
       <c r="Y35" s="2">
         <v>0.0</v>
       </c>
-      <c r="AA35" s="3"/>
-      <c r="AC35" s="3"/>
+      <c r="Z35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="3"/>
       <c r="AD35" s="3"/>
     </row>
     <row r="36">
@@ -12614,8 +12753,11 @@
       <c r="Y36" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z36" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA36" s="3"/>
-      <c r="AC36" s="3"/>
+      <c r="AB36" s="3"/>
       <c r="AD36" s="3"/>
     </row>
     <row r="37">
@@ -12676,8 +12818,8 @@
       <c r="R37" s="16">
         <v>0.0</v>
       </c>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
       <c r="U37" s="16">
         <v>1.0</v>
       </c>
@@ -12693,12 +12835,16 @@
       <c r="Y37" s="15">
         <v>0.0</v>
       </c>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="11" t="s">
+      <c r="Z37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
     <row r="38">
@@ -12780,7 +12926,10 @@
       <c r="Y38" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC38" s="3"/>
+      <c r="Z38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
     <row r="39">
@@ -12858,12 +13007,16 @@
       <c r="Y39" s="12">
         <v>0.0</v>
       </c>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="11" t="s">
+      <c r="Z39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
     <row r="40">
@@ -12942,13 +13095,16 @@
       <c r="Y40" s="2">
         <v>1.0</v>
       </c>
+      <c r="Z40" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA40" s="3"/>
-      <c r="AC40" s="3"/>
+      <c r="AB40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12961,7 +13117,7 @@
         <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F41" s="9">
         <v>0.0</v>
@@ -13023,15 +13179,20 @@
       <c r="Y41" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC41" s="3"/>
+      <c r="Z41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AD41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B42" s="12" t="str">
         <f t="shared" si="1"/>
@@ -13044,7 +13205,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F42" s="13">
         <v>0.0</v>
@@ -13099,14 +13260,18 @@
       <c r="Y42" s="11">
         <v>0.0</v>
       </c>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="11" t="s">
-        <v>62</v>
+      <c r="Z42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA42" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="AB42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
     <row r="43">
@@ -13188,8 +13353,11 @@
       <c r="Y43" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z43" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA43" s="3"/>
-      <c r="AC43" s="3"/>
+      <c r="AB43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
     <row r="44">
@@ -13271,8 +13439,11 @@
       <c r="Y44" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z44" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA44" s="3"/>
-      <c r="AC44" s="3"/>
+      <c r="AB44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
     <row r="45">
@@ -13354,8 +13525,11 @@
       <c r="Y45" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z45" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA45" s="3"/>
-      <c r="AC45" s="3"/>
+      <c r="AB45" s="3"/>
       <c r="AD45" s="3"/>
     </row>
     <row r="46">
@@ -13416,8 +13590,8 @@
       <c r="R46" s="16">
         <v>1.0</v>
       </c>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
       <c r="U46" s="16">
         <v>1.0</v>
       </c>
@@ -13433,12 +13607,14 @@
       <c r="Y46" s="15">
         <v>0.0</v>
       </c>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="11" t="s">
+      <c r="Z46" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
     </row>
     <row r="47">
@@ -13520,7 +13696,10 @@
       <c r="Y47" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC47" s="3"/>
+      <c r="Z47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
     <row r="48">
@@ -13599,11 +13778,11 @@
         <v>0.0</v>
       </c>
       <c r="Z48" s="12"/>
-      <c r="AA48" s="12"/>
-      <c r="AB48" s="11" t="s">
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
     </row>
     <row r="49">
@@ -13682,13 +13861,16 @@
       <c r="Y49" s="2">
         <v>1.0</v>
       </c>
+      <c r="Z49" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA49" s="3"/>
-      <c r="AC49" s="3"/>
+      <c r="AB49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13701,7 +13883,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F50" s="9">
         <v>0.0</v>
@@ -13764,15 +13946,20 @@
       <c r="Y50" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC50" s="3"/>
+      <c r="Z50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AD50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B51" s="12" t="str">
         <f t="shared" si="1"/>
@@ -13785,7 +13972,7 @@
         <v>29</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="13">
         <v>0.0</v>
@@ -13844,14 +14031,18 @@
       <c r="Y51" s="11">
         <v>0.0</v>
       </c>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="11" t="s">
-        <v>62</v>
+      <c r="Z51" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA51" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="AB51" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC51" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="AC51" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="AD51" s="3"/>
     </row>
     <row r="52">
@@ -13934,7 +14125,7 @@
         <v>0.0</v>
       </c>
       <c r="AA52" s="3"/>
-      <c r="AC52" s="3"/>
+      <c r="AB52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
     <row r="53">
@@ -14017,7 +14208,7 @@
         <v>0.0</v>
       </c>
       <c r="AA53" s="3"/>
-      <c r="AC53" s="3"/>
+      <c r="AB53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
     <row r="54">
@@ -14100,7 +14291,7 @@
         <v>0.0</v>
       </c>
       <c r="AA54" s="3"/>
-      <c r="AC54" s="3"/>
+      <c r="AB54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
     <row r="55">
@@ -14179,11 +14370,11 @@
         <v>0.0</v>
       </c>
       <c r="Z55" s="12"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="11" t="s">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
     </row>
     <row r="56">
@@ -14265,7 +14456,7 @@
       <c r="Y56" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC56" s="3"/>
+      <c r="AA56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
     <row r="57">
@@ -14344,11 +14535,11 @@
         <v>0.0</v>
       </c>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="11" t="s">
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
     <row r="58">
@@ -14428,12 +14619,12 @@
         <v>1.0</v>
       </c>
       <c r="AA58" s="3"/>
-      <c r="AC58" s="3"/>
+      <c r="AB58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="1"/>
@@ -14446,7 +14637,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F59" s="9">
         <v>0.0</v>
@@ -14510,12 +14701,12 @@
         <v>0.0</v>
       </c>
       <c r="AA59" s="3"/>
-      <c r="AC59" s="3"/>
+      <c r="AB59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B60" s="12" t="str">
         <f t="shared" si="1"/>
@@ -14528,7 +14719,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F60" s="13">
         <v>0.0</v>
@@ -14588,99 +14779,98 @@
         <v>0.0</v>
       </c>
       <c r="Z60" s="11"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="12"/>
       <c r="AD60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="20" t="str">
-        <f t="shared" ref="A61:A69" si="8">CONCATENATE(C61," ",D61,", ",E61)</f>
-        <v>NOT A, </v>
-      </c>
-      <c r="B61" s="20" t="str">
+      <c r="A61" s="21" t="str">
+        <f>CONCATENATE(C61," ",D61)</f>
+        <v>NOT A</v>
+      </c>
+      <c r="B61" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000000001011000100</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I61" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="J61" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O61" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P61" s="20">
+      <c r="E61" s="22"/>
+      <c r="F61" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P61" s="21">
         <f t="array" ref="P61:R61">+ALU!$B$7:$D$7</f>
         <v>1</v>
       </c>
-      <c r="Q61" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="R61" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="S61" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="T61" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="V61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W61" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="X61" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y61" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q61" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="R61" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S61" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T61" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="V61" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="X61" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Z61" s="21"/>
+      <c r="AB61" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC61" s="25"/>
       <c r="AD61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A62:A63" si="8">CONCATENATE(C62," ",D62,", ",E62)</f>
         <v>NOT B, A</v>
       </c>
       <c r="B62" s="2" t="str">
@@ -14757,185 +14947,182 @@
       <c r="Y62" s="2">
         <v>0.0</v>
       </c>
-      <c r="AA62" s="3"/>
-      <c r="AC62" s="3"/>
+      <c r="AB62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="20" t="str">
+      <c r="A63" s="21" t="str">
         <f t="shared" si="8"/>
         <v>NOT (Dir), A</v>
       </c>
-      <c r="B63" s="20" t="str">
+      <c r="B63" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00011000001011000001</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I63" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="J63" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K63" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L63" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M63" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N63" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O63" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P63" s="20">
+      <c r="F63" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J63" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K63" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P63" s="21">
         <f t="array" ref="P63:R63">+ALU!$B$7:$D$7</f>
         <v>1</v>
       </c>
-      <c r="Q63" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="R63" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="S63" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="T63" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="V63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W63" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="X63" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y63" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q63" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="R63" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S63" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T63" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U63" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="V63" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="X63" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="Z63" s="21"/>
+      <c r="AB63" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC63" s="25"/>
       <c r="AD63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="20" t="str">
-        <f t="shared" si="8"/>
-        <v>SHL A, </v>
-      </c>
-      <c r="B64" s="20" t="str">
+      <c r="A64" s="21" t="str">
+        <f>CONCATENATE(C64," ",D64)</f>
+        <v>SHL A</v>
+      </c>
+      <c r="B64" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000000001101000100</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I64" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="J64" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K64" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O64" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P64" s="20">
+      <c r="E64" s="22"/>
+      <c r="F64" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H64" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="N64" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O64" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P64" s="21">
         <f t="array" ref="P64:R64">+ALU!$B$8:$D$8</f>
         <v>1</v>
       </c>
-      <c r="Q64" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="R64" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="S64" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="T64" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="V64" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="W64" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="X64" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y64" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z64" s="20"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q64" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R64" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="S64" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T64" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U64" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="V64" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="X64" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Z64" s="21"/>
+      <c r="AB64" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC64" s="25"/>
       <c r="AD64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A65:A66" si="9">CONCATENATE(C65," ",D65,", ",E65)</f>
         <v>SHL B, A</v>
       </c>
       <c r="B65" s="2" t="str">
@@ -15012,356 +15199,351 @@
       <c r="Y65" s="2">
         <v>0.0</v>
       </c>
-      <c r="AA65" s="3"/>
-      <c r="AC65" s="3"/>
+      <c r="AB65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="20" t="str">
-        <f t="shared" si="8"/>
+      <c r="A66" s="21" t="str">
+        <f t="shared" si="9"/>
         <v>SHL (Dir), A</v>
       </c>
-      <c r="B66" s="20" t="str">
+      <c r="B66" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00011000001101000001</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G66" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I66" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="J66" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K66" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L66" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M66" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O66" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P66" s="20">
+      <c r="F66" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G66" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K66" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="N66" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O66" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P66" s="21">
         <f t="array" ref="P66:R66">+ALU!$B$8:$D$8</f>
         <v>1</v>
       </c>
-      <c r="Q66" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="R66" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="S66" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="T66" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="V66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W66" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="X66" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y66" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q66" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R66" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="S66" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T66" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U66" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="V66" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="X66" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="Z66" s="21"/>
+      <c r="AB66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC66" s="25"/>
       <c r="AD66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="20" t="str">
-        <f t="shared" si="8"/>
-        <v>SHR A, </v>
-      </c>
-      <c r="B67" s="20" t="str">
+      <c r="A67" s="21" t="str">
+        <f>CONCATENATE(C67," ",D67)</f>
+        <v>SHR A</v>
+      </c>
+      <c r="B67" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000000001111000100</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G67" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I67" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="J67" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K67" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O67" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P67" s="20">
+      <c r="E67" s="22"/>
+      <c r="F67" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H67" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="N67" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O67" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P67" s="21">
         <f t="array" ref="P67:R67">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q67" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="R67" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="S67" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="T67" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="V67" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="W67" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="X67" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y67" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z67" s="20"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q67" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R67" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S67" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T67" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U67" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="V67" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="X67" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Z67" s="21"/>
+      <c r="AB67" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC67" s="25"/>
       <c r="AD67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="20" t="str">
-        <f t="shared" si="8"/>
+      <c r="A68" s="21" t="str">
+        <f t="shared" ref="A68:A69" si="10">CONCATENATE(C68," ",D68,", ",E68)</f>
         <v>SHR B, A</v>
       </c>
-      <c r="B68" s="20" t="str">
+      <c r="B68" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000000001111000010</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="J68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O68" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P68" s="20">
+      <c r="F68" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G68" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="N68" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O68" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P68" s="21">
         <f t="array" ref="P68:R68">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q68" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="R68" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="S68" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="T68" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="V68" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="W68" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="X68" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Y68" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z68" s="20"/>
-      <c r="AA68" s="23"/>
-      <c r="AC68" s="3"/>
+      <c r="Q68" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R68" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S68" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T68" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U68" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="X68" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Y68" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Z68" s="21"/>
+      <c r="AB68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="20" t="str">
-        <f t="shared" si="8"/>
+      <c r="A69" s="21" t="str">
+        <f t="shared" si="10"/>
         <v>SHR (Dir), A</v>
       </c>
-      <c r="B69" s="20" t="str">
+      <c r="B69" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00011000001111000001</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G69" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="J69" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K69" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L69" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M69" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N69" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O69" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P69" s="20">
+      <c r="F69" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K69" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O69" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P69" s="21">
         <f t="array" ref="P69:R69">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q69" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="R69" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="S69" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="T69" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="V69" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W69" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="X69" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y69" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="Z69" s="20"/>
-      <c r="AA69" s="20"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q69" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R69" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S69" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T69" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U69" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="V69" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="X69" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="Z69" s="21"/>
+      <c r="AB69" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC69" s="25"/>
       <c r="AD69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="15" t="str">
-        <f>CONCATENATE(C70," ",D70)</f>
+        <f t="shared" ref="A70:A74" si="11">CONCATENATE(C70," ",D70)</f>
         <v>INC A</v>
       </c>
       <c r="B70" s="15" t="str">
@@ -15420,8 +15602,8 @@
       <c r="T70" s="16">
         <v>0.0</v>
       </c>
-      <c r="U70" s="25"/>
-      <c r="V70" s="25"/>
+      <c r="U70" s="26"/>
+      <c r="V70" s="26"/>
       <c r="W70" s="15">
         <v>1.0</v>
       </c>
@@ -15431,20 +15613,18 @@
       <c r="Y70" s="15">
         <v>0.0</v>
       </c>
-      <c r="Z70" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="11" t="s">
+      <c r="AB70" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC70" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="str">
-        <f t="shared" ref="A71:A73" si="9">CONCATENATE(C71," ",D71,", ",E71)</f>
-        <v>INC B, </v>
+        <f t="shared" si="11"/>
+        <v>INC B</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="1"/>
@@ -15498,7 +15678,7 @@
       <c r="S71" s="27">
         <v>1.0</v>
       </c>
-      <c r="T71" s="24">
+      <c r="T71" s="25">
         <v>1.0</v>
       </c>
       <c r="U71" s="2">
@@ -15516,16 +15696,15 @@
       <c r="Y71" s="2">
         <v>0.0</v>
       </c>
-      <c r="Z71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC71" s="3"/>
+      <c r="AB71" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AD71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="12" t="str">
-        <f t="shared" si="9"/>
-        <v>INC (Dir), </v>
+        <f t="shared" si="11"/>
+        <v>INC (Dir)</v>
       </c>
       <c r="B72" s="12" t="str">
         <f t="shared" si="1"/>
@@ -15577,16 +15756,16 @@
       <c r="R72" s="12">
         <v>0.0</v>
       </c>
-      <c r="S72" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="T72" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="U72" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="V72" s="24">
+      <c r="S72" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="T72" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="U72" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="V72" s="25">
         <v>1.0</v>
       </c>
       <c r="W72" s="12">
@@ -15598,20 +15777,18 @@
       <c r="Y72" s="12">
         <v>1.0</v>
       </c>
-      <c r="Z72" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA72" s="12"/>
       <c r="AB72" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC72" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="12" t="str">
-        <f t="shared" si="9"/>
-        <v>INC (B), </v>
+        <f t="shared" si="11"/>
+        <v>INC (B)</v>
       </c>
       <c r="B73" s="12" t="str">
         <f t="shared" si="1"/>
@@ -15621,7 +15798,7 @@
         <v>45</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="13">
@@ -15670,21 +15847,19 @@
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
-      <c r="Z73" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA73" s="12"/>
       <c r="AB73" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC73" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC73" s="28"/>
       <c r="AD73" s="28"/>
       <c r="AE73" s="29"/>
       <c r="AF73" s="29"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="str">
-        <f>CONCATENATE(C74," ",D74)</f>
+        <f t="shared" si="11"/>
         <v>DEC A</v>
       </c>
       <c r="B74" s="12" t="str">
@@ -15743,10 +15918,10 @@
       <c r="T74" s="8">
         <v>0.0</v>
       </c>
-      <c r="U74" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="V74" s="25">
+      <c r="U74" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="V74" s="26">
         <v>1.0</v>
       </c>
       <c r="W74" s="12">
@@ -15758,19 +15933,17 @@
       <c r="Y74" s="12">
         <v>0.0</v>
       </c>
-      <c r="Z74" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA74" s="12"/>
       <c r="AB74" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC74" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="str">
-        <f t="shared" ref="A75:A78" si="10">CONCATENATE(C75," ",D75,", ",E75)</f>
+        <f t="shared" ref="A75:A78" si="12">CONCATENATE(C75," ",D75,", ",E75)</f>
         <v>CMP A, B</v>
       </c>
       <c r="B75" s="2" t="str">
@@ -15846,12 +16019,12 @@
       <c r="Y75" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC75" s="3"/>
+      <c r="AA75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>CMP A, Lit</v>
       </c>
       <c r="B76" s="2" t="str">
@@ -15927,12 +16100,12 @@
       <c r="Y76" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC76" s="3"/>
+      <c r="AA76" s="3"/>
       <c r="AD76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>CMP A, (Dir)</v>
       </c>
       <c r="B77" s="12" t="str">
@@ -16009,16 +16182,16 @@
         <v>0.0</v>
       </c>
       <c r="Z77" s="12"/>
-      <c r="AA77" s="12"/>
-      <c r="AB77" s="11" t="s">
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="12"/>
+      <c r="AC77" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>CMP A, (B)</v>
       </c>
       <c r="B78" s="12" t="str">
@@ -16032,7 +16205,7 @@
         <v>28</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F78" s="13">
         <v>0.0</v>
@@ -16081,14 +16254,14 @@
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
-      <c r="AA78" s="12"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="11"/>
       <c r="AD78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="str">
-        <f t="shared" ref="A79:A86" si="11">CONCATENATE(C79," ",D79)</f>
+        <f t="shared" ref="A79:A86" si="13">CONCATENATE(C79," ",D79)</f>
         <v>JMP Ins</v>
       </c>
       <c r="B79" s="2" t="str">
@@ -16161,12 +16334,15 @@
       <c r="Y79" s="2">
         <v>0.0</v>
       </c>
-      <c r="AC79" s="3"/>
+      <c r="Z79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA79" s="3"/>
       <c r="AD79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>JEQ Ins</v>
       </c>
       <c r="B80" s="2" t="str">
@@ -16239,13 +16415,13 @@
       <c r="Y80" s="2">
         <v>0.0</v>
       </c>
-      <c r="AB80" s="3"/>
+      <c r="AA80" s="3"/>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>JNE Ins</v>
       </c>
       <c r="B81" s="2" t="str">
@@ -16318,13 +16494,13 @@
       <c r="Y81" s="2">
         <v>0.0</v>
       </c>
-      <c r="AB81" s="3"/>
+      <c r="AA81" s="3"/>
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>JGT Ins</v>
       </c>
       <c r="B82" s="2" t="str">
@@ -16397,13 +16573,13 @@
       <c r="Y82" s="2">
         <v>0.0</v>
       </c>
-      <c r="AB82" s="3"/>
+      <c r="AA82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>JLT Ins</v>
       </c>
       <c r="B83" s="2" t="str">
@@ -16476,13 +16652,13 @@
       <c r="Y83" s="2">
         <v>0.0</v>
       </c>
-      <c r="AB83" s="3"/>
+      <c r="AA83" s="3"/>
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>JGE Ins</v>
       </c>
       <c r="B84" s="2" t="str">
@@ -16555,13 +16731,13 @@
       <c r="Y84" s="2">
         <v>0.0</v>
       </c>
-      <c r="AB84" s="3"/>
+      <c r="AA84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>JLE Ins</v>
       </c>
       <c r="B85" s="2" t="str">
@@ -16634,13 +16810,13 @@
       <c r="Y85" s="2">
         <v>0.0</v>
       </c>
-      <c r="AB85" s="3"/>
+      <c r="AA85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>JCR Ins</v>
       </c>
       <c r="B86" s="2" t="str">
@@ -16713,23 +16889,23 @@
       <c r="Y86" s="2">
         <v>0.0</v>
       </c>
-      <c r="AB86" s="3"/>
+      <c r="AA86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>10100100000000000001</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F87" s="1">
         <v>1.0</v>
@@ -16794,14 +16970,14 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>0.0</v>
@@ -16863,8 +17039,8 @@
       <c r="Y88" s="1">
         <v>0.0</v>
       </c>
-      <c r="Z88" s="1" t="s">
-        <v>87</v>
+      <c r="AB88" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="89">
@@ -16932,20 +17108,20 @@
       <c r="Y89" s="1">
         <v>0.0</v>
       </c>
-      <c r="Z89" s="1" t="s">
-        <v>88</v>
+      <c r="AB89" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>10010100000000000001</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>28</v>
@@ -17013,14 +17189,14 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>10010100000000010001</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>29</v>
@@ -17088,14 +17264,14 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>28</v>
@@ -17160,8 +17336,8 @@
       <c r="Y92" s="1">
         <v>0.0</v>
       </c>
-      <c r="Z92" s="1" t="s">
-        <v>87</v>
+      <c r="AB92" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93">
@@ -17229,20 +17405,20 @@
       <c r="Y93" s="1">
         <v>0.0</v>
       </c>
-      <c r="Z93" s="1" t="s">
-        <v>94</v>
+      <c r="AB93" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>29</v>
@@ -17307,8 +17483,8 @@
       <c r="Y94" s="1">
         <v>0.0</v>
       </c>
-      <c r="Z94" s="1" t="s">
-        <v>87</v>
+      <c r="AB94" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="95">
@@ -17376,8 +17552,8 @@
       <c r="Y95" s="1">
         <v>0.0</v>
       </c>
-      <c r="Z95" s="1" t="s">
-        <v>96</v>
+      <c r="AB95" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="97">
@@ -17385,7 +17561,7 @@
         <v>1.0</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J97" s="32">
         <v>0.0</v>
@@ -17394,7 +17570,7 @@
         <v>0.0</v>
       </c>
       <c r="L97" s="32" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
@@ -17402,7 +17578,7 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J98" s="32">
         <v>1.0</v>
@@ -17437,6 +17613,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Z12:AA15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>SI</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17460,7 +17641,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -17469,15 +17650,15 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2">
         <v>0.0</v>
@@ -17486,7 +17667,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -17494,7 +17675,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -17503,7 +17684,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
@@ -17511,7 +17692,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -17522,7 +17703,7 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B5" s="8">
         <v>1.0</v>
@@ -17531,18 +17712,18 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="32" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F6" s="32">
         <v>1.0</v>
@@ -17553,7 +17734,7 @@
     </row>
     <row r="7">
       <c r="E7" s="32" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F7" s="32">
         <v>1.0</v>
@@ -17564,7 +17745,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -17584,7 +17765,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2">
         <v>0.0</v>
@@ -17593,7 +17774,7 @@
         <v>0.0</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F9" s="32">
         <v>0.0</v>
@@ -17604,7 +17785,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2">
         <v>0.0</v>
@@ -17615,7 +17796,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -17624,15 +17805,15 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -17641,7 +17822,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1">
         <v>1.0</v>
@@ -17649,7 +17830,7 @@
     </row>
     <row r="13">
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1">
         <v>0.0</v>
@@ -17657,7 +17838,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -17665,7 +17846,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2">
         <v>0.0</v>
@@ -17673,7 +17854,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -17681,7 +17862,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -17689,7 +17870,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2">
         <v>0.0</v>
@@ -17697,7 +17878,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -17706,15 +17887,15 @@
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2">
         <v>0.0</v>
@@ -17722,7 +17903,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -18727,7 +18908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>

--- a/Instrucciones-computador.xlsx
+++ b/Instrucciones-computador.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgOhOb9za5MLZC7U2nrCqGupBkGZg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miyAiNlKkJhS8hbG0UQyvjowMWjYw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="134">
   <si>
     <t>Assambler inst</t>
   </si>
@@ -237,6 +237,9 @@
     <t>ADD B,(B)</t>
   </si>
   <si>
+    <t xml:space="preserve">AGREGAR UN NOT B DESPUES DEL COMANDO </t>
+  </si>
+  <si>
     <t>SUB A,(B)</t>
   </si>
   <si>
@@ -267,6 +270,15 @@
     <t>será lo mismo que el sig?</t>
   </si>
   <si>
+    <t>NOT B</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>ESTOS LOS IMPLEMENTAré EN EL ASSEMBLY</t>
+  </si>
+  <si>
     <t>add A,1</t>
   </si>
   <si>
@@ -280,9 +292,6 @@
   </si>
   <si>
     <t>sub A,1</t>
-  </si>
-  <si>
-    <t>SALTA 1 VEZ, las consecutivas no las hace</t>
   </si>
   <si>
     <t>CALL Dir</t>
@@ -436,7 +445,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +460,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -469,20 +496,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
         <bgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -512,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -541,42 +556,68 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9733,7 +9774,7 @@
     <col customWidth="1" min="24" max="24" width="2.71"/>
     <col customWidth="1" min="25" max="25" width="2.57"/>
     <col customWidth="1" min="26" max="26" width="20.71"/>
-    <col customWidth="1" min="27" max="27" width="22.43"/>
+    <col customWidth="1" min="27" max="27" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9878,7 +9919,7 @@
         <v>NOP</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3:B95" si="1">CONCATENATE(F3:Y3)</f>
+        <f t="shared" ref="B3:B96" si="1">CONCATENATE(F3:Y3)</f>
         <v>00000000000000000000</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -11233,87 +11274,89 @@
       <c r="AD18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="14" t="str">
         <f t="shared" si="3"/>
         <v>ADD B, Lit</v>
       </c>
-      <c r="B19" s="12" t="str">
+      <c r="B19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000010000</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>00000000000001110010</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="V19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="F19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T19" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="X19" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="19"/>
       <c r="AD19" s="3"/>
     </row>
     <row r="20">
@@ -11401,84 +11444,88 @@
       <c r="AD20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="str">
+      <c r="A21" s="20" t="str">
         <f t="shared" si="3"/>
         <v>ADD B, (Dir)</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>000010000000010000</v>
-      </c>
-      <c r="C21" s="16" t="s">
+        <v>00001000000001110010</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="O21" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="R21" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="V21" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="W21" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="X21" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Y21" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Z21" s="19" t="s">
+      <c r="F21" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="U21" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="V21" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="Y21" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Z21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="15"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="20"/>
       <c r="AC21" s="11" t="s">
         <v>36</v>
       </c>
@@ -11730,7 +11777,7 @@
       <c r="Z24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="26"/>
       <c r="AB24" s="11" t="s">
         <v>66</v>
       </c>
@@ -11996,89 +12043,93 @@
       <c r="AD27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="str">
+      <c r="A28" s="27" t="str">
         <f t="shared" si="4"/>
         <v>SUB B, Lit</v>
       </c>
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>000000000000110000</v>
-      </c>
-      <c r="C28" s="16" t="s">
+        <v>00000000000011110010</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="L28" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="O28" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="P28" s="16">
+      <c r="F28" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="28">
         <f t="array" ref="P28:R28">+ALU!$B$3:$D$3</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="R28" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="V28" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="W28" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="X28" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Y28" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Z28" s="19" t="s">
+      <c r="Q28" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="S28" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="T28" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="U28" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="V28" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="X28" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="Y28" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AA28" s="9" t="s">
+      <c r="AA28" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="11" t="s">
-        <v>36</v>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="AD28" s="3"/>
     </row>
@@ -12243,7 +12294,7 @@
         <v>0.0</v>
       </c>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="26"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="11" t="s">
         <v>38</v>
@@ -12335,7 +12386,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="1"/>
@@ -12423,7 +12474,7 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="12" t="str">
         <f t="shared" si="1"/>
@@ -12761,88 +12812,90 @@
       <c r="AD36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="str">
+      <c r="A37" s="14" t="str">
         <f t="shared" si="5"/>
         <v>AND B, Lit</v>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>000000000001010000</v>
-      </c>
-      <c r="C37" s="16" t="s">
+        <v>00000000000101110010</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="L37" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="M37" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="O37" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="P37" s="16">
+      <c r="F37" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="O37" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="P37" s="15">
         <f t="array" ref="P37:R37">+ALU!$B$4:$D$4</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="R37" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="V37" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="W37" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="X37" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Z37" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="11" t="s">
+      <c r="Q37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S37" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T37" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="X37" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AD37" s="3"/>
@@ -13010,7 +13063,7 @@
       <c r="Z39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AA39" s="9" t="s">
+      <c r="AA39" s="33" t="s">
         <v>64</v>
       </c>
       <c r="AB39" s="12"/>
@@ -13104,7 +13157,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13192,7 +13245,7 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="12" t="str">
         <f t="shared" si="1"/>
@@ -13533,86 +13586,90 @@
       <c r="AD45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="str">
+      <c r="A46" s="14" t="str">
         <f t="shared" si="6"/>
         <v>OR B, Lit</v>
       </c>
-      <c r="B46" s="15" t="str">
+      <c r="B46" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>000000000001110000</v>
-      </c>
-      <c r="C46" s="16" t="s">
+        <v>00000000000111110010</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="I46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="K46" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="L46" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="M46" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N46" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="O46" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="P46" s="16">
+      <c r="F46" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="O46" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="P46" s="15">
         <f t="array" ref="P46:R46">+ALU!$B$5:$D$5</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="R46" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="V46" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="W46" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="X46" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Y46" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Z46" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="18"/>
-      <c r="AC46" s="11" t="s">
+      <c r="Q46" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R46" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S46" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T46" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U46" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V46" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="X46" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="Z46" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AD46" s="3"/>
@@ -13870,7 +13927,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13959,7 +14016,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" s="12" t="str">
         <f t="shared" si="1"/>
@@ -14041,7 +14098,7 @@
         <v>66</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD51" s="3"/>
     </row>
@@ -14124,6 +14181,9 @@
       <c r="Y52" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z52" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AD52" s="3"/>
@@ -14207,6 +14267,9 @@
       <c r="Y53" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z53" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AD53" s="3"/>
@@ -14290,89 +14353,98 @@
       <c r="Y54" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z54" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="str">
+      <c r="A55" s="14" t="str">
         <f t="shared" si="7"/>
         <v>XOR B, Lit</v>
       </c>
-      <c r="B55" s="12" t="str">
+      <c r="B55" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>000000000010010000</v>
-      </c>
-      <c r="C55" s="8" t="s">
+        <v>00000000001001110010</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I55" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J55" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K55" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="L55" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M55" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="N55" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="O55" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P55" s="8">
+      <c r="F55" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="N55" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="P55" s="15">
         <f t="array" ref="P55:R55">+ALU!$B$6:$D$6</f>
         <v>1</v>
       </c>
-      <c r="Q55" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="R55" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="V55" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W55" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X55" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y55" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="11" t="s">
+      <c r="Q55" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S55" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T55" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="X55" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="Z55" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AD55" s="3"/>
@@ -14456,6 +14528,9 @@
       <c r="Y56" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z56" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
@@ -14534,8 +14609,10 @@
       <c r="Y57" s="12">
         <v>0.0</v>
       </c>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="3"/>
+      <c r="Z57" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA57" s="26"/>
       <c r="AB57" s="12"/>
       <c r="AC57" s="11" t="s">
         <v>36</v>
@@ -14618,13 +14695,16 @@
       <c r="Y58" s="2">
         <v>1.0</v>
       </c>
+      <c r="Z58" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="1"/>
@@ -14700,13 +14780,18 @@
       <c r="Y59" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA59" s="3"/>
+      <c r="Z59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA59" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AB59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="12" t="str">
         <f t="shared" si="1"/>
@@ -14779,1026 +14864,1050 @@
         <v>0.0</v>
       </c>
       <c r="Z60" s="11"/>
-      <c r="AA60" s="3"/>
+      <c r="AA60" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AB60" s="10"/>
       <c r="AC60" s="12"/>
       <c r="AD60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="str">
+      <c r="A61" s="34" t="str">
         <f>CONCATENATE(C61," ",D61)</f>
         <v>NOT A</v>
       </c>
-      <c r="B61" s="21" t="str">
+      <c r="B61" s="34" t="str">
         <f t="shared" si="1"/>
         <v>00000000001011000100</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="M61" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="O61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P61" s="21">
+      <c r="E61" s="35"/>
+      <c r="F61" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="P61" s="34">
         <f t="array" ref="P61:R61">+ALU!$B$7:$D$7</f>
         <v>1</v>
       </c>
-      <c r="Q61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="R61" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S61" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="V61" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="W61" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="X61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Y61" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Z61" s="21"/>
+      <c r="Q61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="R61" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="S61" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="T61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="U61" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="V61" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="X61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Z61" s="35">
+        <v>1.0</v>
+      </c>
       <c r="AB61" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC61" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="AC61" s="38"/>
       <c r="AD61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="str">
-        <f t="shared" ref="A62:A63" si="8">CONCATENATE(C62," ",D62,", ",E62)</f>
+      <c r="A62" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000010010010</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="N62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="O62" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="P62" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="R62" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="S62" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="T62" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="U62" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="V62" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="X62" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="Y62" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="Z62" s="35"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="str">
+        <f t="shared" ref="A63:A64" si="8">CONCATENATE(C63," ",D63,", ",E63)</f>
         <v>NOT B, A</v>
       </c>
-      <c r="B62" s="2" t="str">
+      <c r="B63" s="2" t="str">
         <f t="shared" si="1"/>
         <v>00000000001011000010</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J62" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P62" s="2">
-        <f t="array" ref="P62:R62">+ALU!$B$7:$D$7</f>
+      <c r="F63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="array" ref="P63:R63">+ALU!$B$7:$D$7</f>
         <v>1</v>
       </c>
-      <c r="Q62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R62" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S62" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="V62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="W62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="X62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AB62" s="3"/>
-      <c r="AD62" s="3"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="21" t="str">
+      <c r="Q63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AB63" s="3"/>
+      <c r="AD63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NOT (Dir), A</v>
       </c>
-      <c r="B63" s="21" t="str">
+      <c r="B64" s="34" t="str">
         <f t="shared" si="1"/>
         <v>00011000001011000001</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C64" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D64" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E64" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G63" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I63" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="J63" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="K63" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L63" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="M63" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="N63" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="O63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P63" s="21">
-        <f t="array" ref="P63:R63">+ALU!$B$7:$D$7</f>
+      <c r="F64" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H64" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K64" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N64" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="O64" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="P64" s="34">
+        <f t="array" ref="P64:R64">+ALU!$B$7:$D$7</f>
         <v>1</v>
       </c>
-      <c r="Q63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="R63" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S63" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="V63" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="W63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="X63" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Y63" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Z63" s="21"/>
-      <c r="AB63" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC63" s="25"/>
-      <c r="AD63" s="3"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="21" t="str">
-        <f>CONCATENATE(C64," ",D64)</f>
+      <c r="Q64" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="R64" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="S64" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="T64" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="U64" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="V64" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="X64" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Z64" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AB64" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="34" t="str">
+        <f>CONCATENATE(C65," ",D65)</f>
         <v>SHL A</v>
       </c>
-      <c r="B64" s="21" t="str">
+      <c r="B65" s="34" t="str">
         <f t="shared" si="1"/>
         <v>00000000001101000100</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D65" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K64" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L64" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="M64" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="N64" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="O64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P64" s="21">
-        <f t="array" ref="P64:R64">+ALU!$B$8:$D$8</f>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H65" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N65" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="O65" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="P65" s="34">
+        <f t="array" ref="P65:R65">+ALU!$B$8:$D$8</f>
         <v>1</v>
       </c>
-      <c r="Q64" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S64" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="V64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W64" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="X64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Y64" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Z64" s="21"/>
-      <c r="AB64" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC64" s="25"/>
-      <c r="AD64" s="3"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="str">
-        <f t="shared" ref="A65:A66" si="9">CONCATENATE(C65," ",D65,", ",E65)</f>
+      <c r="Q65" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R65" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="S65" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="T65" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="U65" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="V65" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="X65" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Z65" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AB65" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="str">
+        <f t="shared" ref="A66:A67" si="9">CONCATENATE(C66," ",D66,", ",E66)</f>
         <v>SHL B, A</v>
       </c>
-      <c r="B65" s="2" t="str">
+      <c r="B66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>00000000001101000010</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K65" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P65" s="2">
-        <f t="array" ref="P65:R65">+ALU!$B$8:$D$8</f>
+      <c r="F66" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="array" ref="P66:R66">+ALU!$B$8:$D$8</f>
         <v>1</v>
       </c>
-      <c r="Q65" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S65" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="V65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="W65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="X65" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AB65" s="3"/>
-      <c r="AD65" s="3"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="21" t="str">
+      <c r="Q66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AB66" s="3"/>
+      <c r="AD66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="34" t="str">
         <f t="shared" si="9"/>
         <v>SHL (Dir), A</v>
       </c>
-      <c r="B66" s="21" t="str">
+      <c r="B67" s="34" t="str">
         <f t="shared" si="1"/>
         <v>00011000001101000001</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C67" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D67" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E67" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G66" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I66" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="J66" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="K66" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L66" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="M66" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="O66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P66" s="21">
-        <f t="array" ref="P66:R66">+ALU!$B$8:$D$8</f>
+      <c r="F67" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H67" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K67" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N67" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="O67" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="P67" s="34">
+        <f t="array" ref="P67:R67">+ALU!$B$8:$D$8</f>
         <v>1</v>
       </c>
-      <c r="Q66" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S66" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="V66" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="W66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="X66" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Y66" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Z66" s="21"/>
-      <c r="AB66" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC66" s="25"/>
-      <c r="AD66" s="3"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="21" t="str">
-        <f>CONCATENATE(C67," ",D67)</f>
+      <c r="Q67" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R67" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="S67" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="T67" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="U67" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="V67" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="X67" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Z67" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AB67" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC67" s="38"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="34" t="str">
+        <f>CONCATENATE(C68," ",D68)</f>
         <v>SHR A</v>
       </c>
-      <c r="B67" s="21" t="str">
+      <c r="B68" s="34" t="str">
         <f t="shared" si="1"/>
         <v>00000000001111000100</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D68" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K67" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L67" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="M67" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="N67" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="O67" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P67" s="21">
-        <f t="array" ref="P67:R67">+ALU!$B$9:$D$9</f>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G68" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N68" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="O68" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="P68" s="34">
+        <f t="array" ref="P68:R68">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q67" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R67" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S67" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T67" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="V67" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W67" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="X67" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Y67" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Z67" s="21"/>
-      <c r="AB67" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC67" s="25"/>
-      <c r="AD67" s="3"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="21" t="str">
-        <f t="shared" ref="A68:A69" si="10">CONCATENATE(C68," ",D68,", ",E68)</f>
+      <c r="Q68" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R68" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="S68" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="T68" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="U68" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="X68" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Z68" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AB68" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC68" s="38"/>
+      <c r="AD68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="34" t="str">
+        <f t="shared" ref="A69:A70" si="10">CONCATENATE(C69," ",D69,", ",E69)</f>
         <v>SHR B, A</v>
       </c>
-      <c r="B68" s="21" t="str">
+      <c r="B69" s="34" t="str">
         <f t="shared" si="1"/>
         <v>00000000001111000010</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E69" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="J68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="K68" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="M68" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="O68" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P68" s="21">
-        <f t="array" ref="P68:R68">+ALU!$B$9:$D$9</f>
+      <c r="F69" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="O69" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="P69" s="34">
+        <f t="array" ref="P69:R69">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q68" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R68" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S68" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T68" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="V68" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="W68" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="X68" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="Y68" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Z68" s="21"/>
-      <c r="AB68" s="3"/>
-      <c r="AD68" s="3"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="21" t="str">
+      <c r="Q69" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R69" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="S69" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="T69" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="U69" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="V69" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="X69" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="Y69" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Z69" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AB69" s="3"/>
+      <c r="AD69" s="3"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="34" t="str">
         <f t="shared" si="10"/>
         <v>SHR (Dir), A</v>
       </c>
-      <c r="B69" s="21" t="str">
+      <c r="B70" s="34" t="str">
         <f t="shared" si="1"/>
         <v>00011000001111000001</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D70" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E70" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G69" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="J69" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="K69" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L69" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="M69" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="N69" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="O69" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P69" s="21">
-        <f t="array" ref="P69:R69">+ALU!$B$9:$D$9</f>
+      <c r="F70" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K70" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="O70" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="P70" s="34">
+        <f t="array" ref="P70:R70">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q69" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R69" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S69" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T69" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="V69" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="W69" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="X69" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Y69" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Z69" s="21"/>
-      <c r="AB69" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC69" s="25"/>
-      <c r="AD69" s="3"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="15" t="str">
-        <f t="shared" ref="A70:A74" si="11">CONCATENATE(C70," ",D70)</f>
+      <c r="Q70" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R70" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="S70" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="T70" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="U70" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="V70" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="X70" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Z70" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AB70" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC70" s="38"/>
+      <c r="AD70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="20" t="str">
+        <f t="shared" ref="A71:A75" si="11">CONCATENATE(C71," ",D71)</f>
         <v>INC A</v>
       </c>
-      <c r="B70" s="15" t="str">
+      <c r="B71" s="20" t="str">
         <f t="shared" si="1"/>
         <v>000000000000010100</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D71" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="G70" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="I70" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J70" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="K70" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="L70" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="M70" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N70" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="O70" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="P70" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Q70" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="R70" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="S70" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="T70" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="26"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="X70" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Y70" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="AB70" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC70" s="11" t="s">
+      <c r="E71" s="21"/>
+      <c r="F71" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G71" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H71" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N71" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O71" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P71" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="R71" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="S71" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="T71" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="X71" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB71" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC71" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AD70" s="3"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="str">
+      <c r="AD71" s="3"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="str">
         <f t="shared" si="11"/>
         <v>INC B</v>
       </c>
-      <c r="B71" s="2" t="str">
+      <c r="B72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>00000000000001110010</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G71" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J71" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K71" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L71" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M71" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S71" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="T71" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="U71" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="W71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="X71" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Y71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AB71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD71" s="3"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>INC (Dir)</v>
-      </c>
-      <c r="B72" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000111001</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G72" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I72" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J72" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K72" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="L72" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M72" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="N72" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="O72" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P72" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Q72" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="R72" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="S72" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="T72" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="U72" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="V72" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="W72" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X72" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y72" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="AB72" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC72" s="11" t="s">
-        <v>36</v>
+      <c r="F72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S72" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="T72" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="U72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="AD72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>INC (B)</v>
+        <v>INC (Dir)</v>
       </c>
       <c r="B73" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000000</v>
+        <v>00000000000000111001</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>63</v>
+      <c r="D73" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="13">
@@ -15840,39 +15949,54 @@
       <c r="R73" s="12">
         <v>0.0</v>
       </c>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
+      <c r="S73" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="T73" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="U73" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="V73" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="W73" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="X73" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="AB73" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC73" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="29"/>
-      <c r="AF73" s="29"/>
+      <c r="AD73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>DEC A</v>
+        <v>INC (B)</v>
       </c>
       <c r="B74" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>00000000000011011000</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="8"/>
+        <v>0000000000000</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="12"/>
       <c r="F74" s="13">
         <v>0.0</v>
       </c>
@@ -15903,300 +16027,298 @@
       <c r="O74" s="12">
         <v>0.0</v>
       </c>
-      <c r="P74" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Q74" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R74" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S74" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="T74" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U74" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V74" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="W74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y74" s="12">
-        <v>0.0</v>
+      <c r="P74" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="R74" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AB74" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC74" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AD74" s="3"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="str">
-        <f t="shared" ref="A75:A78" si="12">CONCATENATE(C75," ",D75,", ",E75)</f>
+      <c r="A75" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>DEC A</v>
+      </c>
+      <c r="B75" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000011011000</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G75" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H75" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="N75" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="O75" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="P75" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="R75" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="S75" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T75" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="U75" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="V75" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="W75" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="X75" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC75" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD75" s="3"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="str">
+        <f t="shared" ref="A76:A79" si="12">CONCATENATE(C76," ",D76,", ",E76)</f>
         <v>CMP A, B</v>
       </c>
-      <c r="B75" s="2" t="str">
+      <c r="B76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>00000000000011010000</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G75" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J75" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K75" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L75" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M75" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R75" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S75" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U75" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="W75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="X75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Y75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AA75" s="3"/>
-      <c r="AD75" s="3"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="str">
+      <c r="F76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R76" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S76" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="T76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U76" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="V76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA76" s="3"/>
+      <c r="AD76" s="3"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="str">
         <f t="shared" si="12"/>
         <v>CMP A, Lit</v>
       </c>
-      <c r="B76" s="2" t="str">
+      <c r="B77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>00000000000011001000</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G76" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J76" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K76" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R76" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S76" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="V76" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="X76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Y76" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AA76" s="3"/>
-      <c r="AD76" s="3"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>CMP A, (Dir)</v>
-      </c>
-      <c r="B77" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000011011000</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G77" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H77" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I77" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J77" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K77" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="L77" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M77" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="N77" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="O77" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P77" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Q77" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="R77" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="S77" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="T77" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="U77" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="V77" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="W77" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X77" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y77" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z77" s="12"/>
+      <c r="F77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="T77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="V77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA77" s="3"/>
-      <c r="AB77" s="12"/>
-      <c r="AC77" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="AD77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>CMP A, (B)</v>
+        <v>CMP A, (Dir)</v>
       </c>
       <c r="B78" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>0000000000001</v>
+        <v>00000000000011011000</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>47</v>
@@ -16204,8 +16326,8 @@
       <c r="D78" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>63</v>
+      <c r="E78" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F78" s="13">
         <v>0.0</v>
@@ -16246,111 +16368,116 @@
       <c r="R78" s="12">
         <v>1.0</v>
       </c>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
+      <c r="S78" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="T78" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="U78" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="V78" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="W78" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="X78" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" s="12">
+        <v>0.0</v>
+      </c>
       <c r="Z78" s="12"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="12"/>
-      <c r="AC78" s="11"/>
+      <c r="AC78" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="AD78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="str">
-        <f t="shared" ref="A79:A86" si="13">CONCATENATE(C79," ",D79)</f>
+      <c r="A79" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>CMP A, (B)</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000001</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G79" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="L79" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="N79" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="O79" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="P79" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="R79" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="str">
+        <f t="shared" ref="A80:A87" si="13">CONCATENATE(C80," ",D80)</f>
         <v>JMP Ins</v>
       </c>
-      <c r="B79" s="2" t="str">
+      <c r="B80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>00100000010000000000</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G79" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H79" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J79" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K79" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L79" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M79" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O79" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="V79" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="W79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="X79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Y79" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Z79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA79" s="3"/>
-      <c r="AD79" s="3"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>JEQ Ins</v>
-      </c>
-      <c r="B80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>00100010010000000000</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>49</v>
@@ -16374,7 +16501,7 @@
         <v>0.0</v>
       </c>
       <c r="L80" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M80" s="3">
         <v>0.0</v>
@@ -16382,7 +16509,7 @@
       <c r="N80" s="3">
         <v>0.0</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80" s="2">
         <v>1.0</v>
       </c>
       <c r="P80" s="2">
@@ -16403,7 +16530,7 @@
       <c r="U80" s="2">
         <v>0.0</v>
       </c>
-      <c r="V80" s="30">
+      <c r="V80" s="42">
         <v>0.0</v>
       </c>
       <c r="W80" s="2">
@@ -16415,21 +16542,23 @@
       <c r="Y80" s="2">
         <v>0.0</v>
       </c>
+      <c r="Z80" s="1">
+        <v>1.0</v>
+      </c>
       <c r="AA80" s="3"/>
-      <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JNE Ins</v>
+        <v>JEQ Ins</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00100001010000000000</v>
+        <v>00100010010000000000</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>49</v>
@@ -16453,10 +16582,10 @@
         <v>0.0</v>
       </c>
       <c r="L81" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M81" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N81" s="3">
         <v>0.0</v>
@@ -16482,7 +16611,7 @@
       <c r="U81" s="2">
         <v>0.0</v>
       </c>
-      <c r="V81" s="30">
+      <c r="V81" s="42">
         <v>0.0</v>
       </c>
       <c r="W81" s="2">
@@ -16493,6 +16622,9 @@
       </c>
       <c r="Y81" s="2">
         <v>0.0</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>1.0</v>
       </c>
       <c r="AA81" s="3"/>
       <c r="AC81" s="3"/>
@@ -16501,14 +16633,14 @@
     <row r="82">
       <c r="A82" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JGT Ins</v>
+        <v>JNE Ins</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00100011010000000000</v>
+        <v>00100001010000000000</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>49</v>
@@ -16532,7 +16664,7 @@
         <v>0.0</v>
       </c>
       <c r="L82" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M82" s="3">
         <v>1.0</v>
@@ -16561,7 +16693,7 @@
       <c r="U82" s="2">
         <v>0.0</v>
       </c>
-      <c r="V82" s="30">
+      <c r="V82" s="42">
         <v>0.0</v>
       </c>
       <c r="W82" s="2">
@@ -16572,6 +16704,9 @@
       </c>
       <c r="Y82" s="2">
         <v>0.0</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>1.0</v>
       </c>
       <c r="AA82" s="3"/>
       <c r="AC82" s="3"/>
@@ -16580,14 +16715,14 @@
     <row r="83">
       <c r="A83" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JLT Ins</v>
+        <v>JGT Ins</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00100000110000000000</v>
+        <v>00100011010000000000</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>49</v>
@@ -16611,13 +16746,13 @@
         <v>0.0</v>
       </c>
       <c r="L83" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M83" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N83" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O83" s="3">
         <v>1.0</v>
@@ -16640,7 +16775,7 @@
       <c r="U83" s="2">
         <v>0.0</v>
       </c>
-      <c r="V83" s="30">
+      <c r="V83" s="42">
         <v>0.0</v>
       </c>
       <c r="W83" s="2">
@@ -16651,6 +16786,9 @@
       </c>
       <c r="Y83" s="2">
         <v>0.0</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>1.0</v>
       </c>
       <c r="AA83" s="3"/>
       <c r="AC83" s="3"/>
@@ -16659,14 +16797,14 @@
     <row r="84">
       <c r="A84" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JGE Ins</v>
+        <v>JLT Ins</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00100010110000000000</v>
+        <v>00100000110000000000</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>49</v>
@@ -16690,7 +16828,7 @@
         <v>0.0</v>
       </c>
       <c r="L84" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M84" s="3">
         <v>0.0</v>
@@ -16719,7 +16857,7 @@
       <c r="U84" s="2">
         <v>0.0</v>
       </c>
-      <c r="V84" s="30">
+      <c r="V84" s="42">
         <v>0.0</v>
       </c>
       <c r="W84" s="2">
@@ -16730,6 +16868,9 @@
       </c>
       <c r="Y84" s="2">
         <v>0.0</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>1.0</v>
       </c>
       <c r="AA84" s="3"/>
       <c r="AC84" s="3"/>
@@ -16738,14 +16879,14 @@
     <row r="85">
       <c r="A85" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JLE Ins</v>
+        <v>JGE Ins</v>
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00100001110000000000</v>
+        <v>00100010110000000000</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>49</v>
@@ -16769,10 +16910,10 @@
         <v>0.0</v>
       </c>
       <c r="L85" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M85" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N85" s="3">
         <v>1.0</v>
@@ -16798,7 +16939,7 @@
       <c r="U85" s="2">
         <v>0.0</v>
       </c>
-      <c r="V85" s="30">
+      <c r="V85" s="42">
         <v>0.0</v>
       </c>
       <c r="W85" s="2">
@@ -16809,6 +16950,9 @@
       </c>
       <c r="Y85" s="2">
         <v>0.0</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>1.0</v>
       </c>
       <c r="AA85" s="3"/>
       <c r="AC85" s="3"/>
@@ -16817,14 +16961,14 @@
     <row r="86">
       <c r="A86" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>JCR Ins</v>
+        <v>JLE Ins</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00100011110000000000</v>
+        <v>00100001110000000000</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>49</v>
@@ -16848,7 +16992,7 @@
         <v>0.0</v>
       </c>
       <c r="L86" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M86" s="3">
         <v>1.0</v>
@@ -16877,7 +17021,7 @@
       <c r="U86" s="2">
         <v>0.0</v>
       </c>
-      <c r="V86" s="30">
+      <c r="V86" s="42">
         <v>0.0</v>
       </c>
       <c r="W86" s="2">
@@ -16888,85 +17032,95 @@
       </c>
       <c r="Y86" s="2">
         <v>0.0</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>1.0</v>
       </c>
       <c r="AA86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>88</v>
+      <c r="A87" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>JCR Ins</v>
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>10100100000000000001</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I87" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="V87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="W87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Y87" s="1">
-        <v>1.0</v>
-      </c>
+        <v>00100011110000000000</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="V87" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="W87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -16974,28 +17128,31 @@
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01000000000000000000</v>
+        <v>10100100000000000001</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F88" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G88" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I88" s="43">
         <v>0.0</v>
       </c>
       <c r="J88" s="1">
         <v>0.0</v>
       </c>
       <c r="K88" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L88" s="1">
         <v>0.0</v>
@@ -17037,24 +17194,27 @@
         <v>0.0</v>
       </c>
       <c r="Y88" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB88" s="1" t="s">
-        <v>92</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00000100000000000000</v>
+        <v>01000000000000000000</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F89" s="1">
         <v>0.0</v>
       </c>
       <c r="G89" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H89" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H89" s="1">
         <v>0.0</v>
       </c>
       <c r="I89" s="1">
@@ -17064,7 +17224,7 @@
         <v>0.0</v>
       </c>
       <c r="K89" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L89" s="1">
         <v>0.0</v>
@@ -17109,34 +17269,25 @@
         <v>0.0</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>10010100000000000001</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>28</v>
+        <v>00000100000000000000</v>
       </c>
       <c r="F90" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G90" s="1">
         <v>0.0</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="43">
         <v>0.0</v>
       </c>
       <c r="I90" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J90" s="1">
         <v>0.0</v>
@@ -17184,22 +17335,25 @@
         <v>0.0</v>
       </c>
       <c r="Y90" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>10010100000000010001</v>
+        <v>10010100000000000001</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F91" s="1">
         <v>1.0</v>
@@ -17247,7 +17401,7 @@
         <v>0.0</v>
       </c>
       <c r="U91" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V91" s="1">
         <v>0.0</v>
@@ -17260,39 +17414,42 @@
       </c>
       <c r="Y91" s="1">
         <v>1.0</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01000000000000000000</v>
+        <v>10010100000000010001</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F92" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G92" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H92" s="1">
         <v>0.0</v>
       </c>
       <c r="I92" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J92" s="1">
         <v>0.0</v>
       </c>
       <c r="K92" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L92" s="1">
         <v>0.0</v>
@@ -17322,7 +17479,7 @@
         <v>0.0</v>
       </c>
       <c r="U92" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V92" s="1">
         <v>0.0</v>
@@ -17334,34 +17491,43 @@
         <v>0.0</v>
       </c>
       <c r="Y92" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>00010100000000011100</v>
+        <v>01000000000000000000</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F93" s="1">
         <v>0.0</v>
       </c>
       <c r="G93" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H93" s="1">
         <v>0.0</v>
       </c>
       <c r="I93" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J93" s="1">
         <v>0.0</v>
       </c>
       <c r="K93" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L93" s="1">
         <v>0.0</v>
@@ -17391,13 +17557,13 @@
         <v>0.0</v>
       </c>
       <c r="U93" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V93" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W93" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X93" s="1">
         <v>0.0</v>
@@ -17405,41 +17571,35 @@
       <c r="Y93" s="1">
         <v>0.0</v>
       </c>
+      <c r="Z93" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AB93" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01000000000000000000</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>29</v>
+        <v>00010100000000011100</v>
       </c>
       <c r="F94" s="1">
         <v>0.0</v>
       </c>
       <c r="G94" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H94" s="1">
         <v>0.0</v>
       </c>
       <c r="I94" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J94" s="1">
         <v>0.0</v>
       </c>
       <c r="K94" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L94" s="1">
         <v>0.0</v>
@@ -17469,13 +17629,13 @@
         <v>0.0</v>
       </c>
       <c r="U94" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V94" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W94" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X94" s="1">
         <v>0.0</v>
@@ -17484,131 +17644,212 @@
         <v>0.0</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>01000000000000000000</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>00010100000000011010</v>
       </c>
-      <c r="F95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K95" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U95" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="V95" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X95" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Y95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB95" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="H97" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J97" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="K97" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="L97" s="32" t="s">
-        <v>103</v>
+      <c r="F96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J98" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="K98" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="L98" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J98" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K98" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L98" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J99" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="K99" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L99" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99">
-      <c r="J99" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="K99" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="L99" s="32" t="s">
+    <row r="100">
+      <c r="J100" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K100" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="L100" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100">
-      <c r="J100" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="K100" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="L100" s="32" t="s">
+    <row r="101">
+      <c r="J101" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="K101" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="L101" s="44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -17641,7 +17882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -17650,15 +17891,15 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2">
         <v>0.0</v>
@@ -17667,7 +17908,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -17675,7 +17916,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -17684,7 +17925,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
@@ -17692,7 +17933,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -17703,7 +17944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" s="8">
         <v>1.0</v>
@@ -17711,41 +17952,41 @@
       <c r="C5" s="8">
         <v>1.0</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>116</v>
+      <c r="E5" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="E6" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="44">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="E7" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="32">
+      <c r="E7" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="44">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -17753,19 +17994,19 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="32">
+      <c r="F8" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="44">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2">
         <v>0.0</v>
@@ -17773,19 +18014,19 @@
       <c r="C9" s="2">
         <v>0.0</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="E9" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="44">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2">
         <v>0.0</v>
@@ -17796,7 +18037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -17805,15 +18046,15 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -17822,7 +18063,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1">
         <v>1.0</v>
@@ -17830,7 +18071,7 @@
     </row>
     <row r="13">
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1">
         <v>0.0</v>
@@ -17838,7 +18079,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -17846,7 +18087,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2">
         <v>0.0</v>
@@ -17854,7 +18095,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -17862,7 +18103,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -17870,7 +18111,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B19" s="2">
         <v>0.0</v>
@@ -17878,7 +18119,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -17887,15 +18128,15 @@
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B23" s="2">
         <v>0.0</v>
@@ -17903,7 +18144,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -18908,7 +19149,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>

--- a/Instrucciones-computador.xlsx
+++ b/Instrucciones-computador.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="139">
   <si>
     <t>Assambler inst</t>
   </si>
@@ -291,6 +291,9 @@
     <t>add (dir),1</t>
   </si>
   <si>
+    <t>Hice un push y varias otras cosas</t>
+  </si>
+  <si>
     <t>add (B),1</t>
   </si>
   <si>
@@ -312,6 +315,9 @@
     <t>incrementa SP</t>
   </si>
   <si>
+    <t>RET 2</t>
+  </si>
+  <si>
     <t>guarda Mem[SP] en PC</t>
   </si>
   <si>
@@ -330,10 +336,16 @@
     <t>POP</t>
   </si>
   <si>
+    <t>POP A2</t>
+  </si>
+  <si>
     <t>guarda Mem[SP] en A</t>
   </si>
   <si>
     <t>POP B</t>
+  </si>
+  <si>
+    <t>POP B2</t>
   </si>
   <si>
     <t>guarda Mem[SP] en B</t>
@@ -448,7 +460,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +471,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -477,12 +501,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -530,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -552,38 +570,37 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -596,31 +613,40 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -10962,9 +10988,9 @@
       <c r="H15" s="13">
         <v>0.0</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="13">
         <v>0.0</v>
       </c>
@@ -11013,59 +11039,59 @@
       <c r="AA15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AB15" s="11" t="s">
+      <c r="AB15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AC15" s="11" t="s">
+      <c r="AC15" s="15" t="s">
         <v>69</v>
       </c>
       <c r="AD15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="str">
+      <c r="A16" s="16" t="str">
         <f t="shared" ref="A16:A22" si="3">CONCATENATE(C16," ",D16,", ",E16)</f>
         <v>MOV (B), Lit</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AA16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
       <c r="AD16" s="3"/>
     </row>
     <row r="17">
@@ -11324,89 +11350,89 @@
       <c r="AD19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="str">
+      <c r="A20" s="20" t="str">
         <f t="shared" si="3"/>
         <v>ADD B, Lit</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="20" t="str">
         <f t="shared" si="4"/>
         <v>00000000000001110010</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P20" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="R20" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="S20" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="T20" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="U20" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="V20" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="W20" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X20" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="Y20" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Z20" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="19"/>
+      <c r="F20" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="U20" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="V20" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="X20" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="25"/>
       <c r="AD20" s="3"/>
     </row>
     <row r="21">
@@ -11494,89 +11520,89 @@
       <c r="AD21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="str">
+      <c r="A22" s="26" t="str">
         <f t="shared" si="3"/>
         <v>ADD B, (Dir)</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="26" t="str">
         <f t="shared" si="4"/>
         <v>00001000000001110010</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P22" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="R22" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S22" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="T22" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="U22" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="V22" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="W22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="X22" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="Y22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z22" s="25" t="s">
+      <c r="F22" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="R22" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="T22" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="U22" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="V22" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="X22" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="11" t="s">
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD22" s="3"/>
@@ -11752,10 +11778,10 @@
       <c r="AD24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="12" t="str">
+      <c r="B25" s="33" t="str">
         <f t="shared" si="4"/>
         <v>000011000000010010</v>
       </c>
@@ -11765,25 +11791,25 @@
       <c r="D25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="F25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="34">
         <v>1.0</v>
       </c>
       <c r="L25" s="10">
@@ -11795,43 +11821,43 @@
       <c r="N25" s="10">
         <v>0.0</v>
       </c>
-      <c r="O25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="P25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="R25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="V25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="W25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="X25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Z25" s="11" t="s">
+      <c r="O25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="11" t="s">
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AC25" s="12"/>
+      <c r="AC25" s="33"/>
       <c r="AD25" s="3"/>
     </row>
     <row r="26">
@@ -12093,92 +12119,92 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="16" t="str">
         <f t="shared" si="5"/>
         <v>SUB B, Lit</v>
       </c>
-      <c r="B29" s="27" t="str">
+      <c r="B29" s="16" t="str">
         <f t="shared" si="4"/>
         <v>00000000000011110010</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="L29" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N29" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="O29" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="P29" s="28">
+      <c r="F29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="35">
         <f t="array" ref="P29:R29">+ALU!$B$3:$D$3</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="R29" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="S29" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="T29" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="U29" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="V29" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="W29" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X29" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="Y29" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="Z29" s="32" t="s">
+      <c r="Q29" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="R29" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="S29" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="T29" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="U29" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="V29" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="W29" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Z29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AA29" s="33" t="s">
+      <c r="AA29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="32" t="s">
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="17" t="s">
         <v>73</v>
       </c>
       <c r="AD29" s="3"/>
@@ -12269,11 +12295,11 @@
       <c r="AD30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="str">
+      <c r="A31" s="33" t="str">
         <f t="shared" si="5"/>
         <v>SUB B, (Dir)</v>
       </c>
-      <c r="B31" s="12" t="str">
+      <c r="B31" s="33" t="str">
         <f t="shared" si="4"/>
         <v>000010000000110010</v>
       </c>
@@ -12286,22 +12312,22 @@
       <c r="E31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J31" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K31" s="13">
+      <c r="F31" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K31" s="34">
         <v>0.0</v>
       </c>
       <c r="L31" s="10">
@@ -12313,7 +12339,7 @@
       <c r="N31" s="10">
         <v>0.0</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="33">
         <v>0.0</v>
       </c>
       <c r="P31" s="8">
@@ -12334,19 +12360,19 @@
       <c r="V31" s="8">
         <v>0.0</v>
       </c>
-      <c r="W31" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X31" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="11" t="s">
+      <c r="W31" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="Y31" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="15" t="s">
         <v>38</v>
       </c>
       <c r="AD31" s="3"/>
@@ -12523,38 +12549,38 @@
       <c r="AD33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="12" t="str">
+      <c r="B34" s="33" t="str">
         <f t="shared" si="4"/>
         <v>0000110000001010</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K34" s="13">
+      <c r="F34" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="34">
         <v>1.0</v>
       </c>
       <c r="L34" s="10">
@@ -12566,41 +12592,41 @@
       <c r="N34" s="10">
         <v>0.0</v>
       </c>
-      <c r="O34" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="P34" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="R34" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="X34" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="Y34" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Z34" s="11" t="s">
+      <c r="O34" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z34" s="15" t="s">
         <v>64</v>
       </c>
       <c r="AA34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AB34" s="11" t="s">
+      <c r="AB34" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AC34" s="12"/>
+      <c r="AC34" s="33"/>
       <c r="AD34" s="3"/>
     </row>
     <row r="35">
@@ -12862,90 +12888,90 @@
       <c r="AD37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="str">
+      <c r="A38" s="20" t="str">
         <f t="shared" si="6"/>
         <v>AND B, Lit</v>
       </c>
-      <c r="B38" s="14" t="str">
+      <c r="B38" s="20" t="str">
         <f t="shared" si="4"/>
         <v>00000000000101110010</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="K38" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="L38" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="M38" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N38" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P38" s="15">
+      <c r="F38" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O38" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P38" s="21">
         <f t="array" ref="P38:R38">+ALU!$B$4:$D$4</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="R38" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="S38" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="T38" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="U38" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="V38" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="W38" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X38" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="Y38" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Z38" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="19" t="s">
+      <c r="Q38" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R38" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="S38" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="T38" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="U38" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="V38" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W38" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="X38" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="Y38" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Z38" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AD38" s="3"/>
@@ -13036,11 +13062,11 @@
       <c r="AD39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="str">
+      <c r="A40" s="33" t="str">
         <f t="shared" si="6"/>
         <v>AND B, (Dir)</v>
       </c>
-      <c r="B40" s="12" t="str">
+      <c r="B40" s="33" t="str">
         <f t="shared" si="4"/>
         <v>000010000001010000</v>
       </c>
@@ -13053,22 +13079,22 @@
       <c r="E40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G40" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I40" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K40" s="13">
+      <c r="F40" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K40" s="34">
         <v>0.0</v>
       </c>
       <c r="L40" s="10">
@@ -13080,7 +13106,7 @@
       <c r="N40" s="10">
         <v>0.0</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="33">
         <v>0.0</v>
       </c>
       <c r="P40" s="8">
@@ -13101,23 +13127,23 @@
       <c r="V40" s="8">
         <v>0.0</v>
       </c>
-      <c r="W40" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y40" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z40" s="11" t="s">
+      <c r="W40" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="X40" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Y40" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Z40" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AA40" s="33" t="s">
+      <c r="AA40" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="11" t="s">
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD40" s="3"/>
@@ -13294,10 +13320,10 @@
       <c r="AD42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="12" t="str">
+      <c r="B43" s="33" t="str">
         <f t="shared" si="4"/>
         <v>0000110000010010</v>
       </c>
@@ -13307,25 +13333,25 @@
       <c r="D43" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I43" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J43" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K43" s="13">
+      <c r="F43" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H43" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K43" s="34">
         <v>1.0</v>
       </c>
       <c r="L43" s="10">
@@ -13337,7 +13363,7 @@
       <c r="N43" s="10">
         <v>0.0</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="33">
         <v>0.0</v>
       </c>
       <c r="P43" s="8">
@@ -13350,29 +13376,29 @@
       <c r="R43" s="8">
         <v>0.0</v>
       </c>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="X43" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="Y43" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Z43" s="11" t="s">
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="Y43" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z43" s="15" t="s">
         <v>64</v>
       </c>
       <c r="AA43" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AB43" s="11" t="s">
+      <c r="AB43" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AC43" s="11" t="s">
+      <c r="AC43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD43" s="3"/>
@@ -13636,90 +13662,90 @@
       <c r="AD46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="str">
+      <c r="A47" s="20" t="str">
         <f t="shared" si="7"/>
         <v>OR B, Lit</v>
       </c>
-      <c r="B47" s="14" t="str">
+      <c r="B47" s="20" t="str">
         <f t="shared" si="4"/>
         <v>00000000000111110010</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G47" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H47" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="I47" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="L47" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="M47" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N47" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="O47" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P47" s="15">
+      <c r="F47" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N47" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O47" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P47" s="21">
         <f t="array" ref="P47:R47">+ALU!$B$5:$D$5</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="R47" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="S47" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="T47" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="U47" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="V47" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="W47" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X47" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="Y47" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Z47" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="19" t="s">
+      <c r="Q47" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R47" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S47" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="T47" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="U47" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="V47" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="X47" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="Y47" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Z47" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AD47" s="3"/>
@@ -13810,11 +13836,11 @@
       <c r="AD48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="str">
+      <c r="A49" s="33" t="str">
         <f t="shared" si="7"/>
         <v>OR B, (Dir)</v>
       </c>
-      <c r="B49" s="12" t="str">
+      <c r="B49" s="33" t="str">
         <f t="shared" si="4"/>
         <v>000010000001110000</v>
       </c>
@@ -13827,22 +13853,22 @@
       <c r="E49" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I49" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J49" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K49" s="13">
+      <c r="F49" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G49" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H49" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K49" s="34">
         <v>0.0</v>
       </c>
       <c r="L49" s="10">
@@ -13854,7 +13880,7 @@
       <c r="N49" s="10">
         <v>0.0</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="33">
         <v>0.0</v>
       </c>
       <c r="P49" s="8">
@@ -13875,19 +13901,19 @@
       <c r="V49" s="8">
         <v>0.0</v>
       </c>
-      <c r="W49" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X49" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y49" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z49" s="12"/>
+      <c r="W49" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="X49" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Z49" s="33"/>
       <c r="AA49" s="3"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="11" t="s">
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD49" s="3"/>
@@ -14065,10 +14091,10 @@
       <c r="AD51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="12" t="str">
+      <c r="B52" s="33" t="str">
         <f t="shared" si="4"/>
         <v>000011000001110010</v>
       </c>
@@ -14078,25 +14104,25 @@
       <c r="D52" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I52" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K52" s="13">
+      <c r="F52" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G52" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H52" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K52" s="34">
         <v>1.0</v>
       </c>
       <c r="L52" s="10">
@@ -14108,7 +14134,7 @@
       <c r="N52" s="10">
         <v>0.0</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="33">
         <v>0.0</v>
       </c>
       <c r="P52" s="8">
@@ -14121,33 +14147,33 @@
       <c r="R52" s="8">
         <v>1.0</v>
       </c>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="V52" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="W52" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="X52" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="Y52" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Z52" s="11" t="s">
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X52" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="Y52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z52" s="15" t="s">
         <v>64</v>
       </c>
       <c r="AA52" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AB52" s="11" t="s">
+      <c r="AB52" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AC52" s="11" t="s">
+      <c r="AC52" s="15" t="s">
         <v>80</v>
       </c>
       <c r="AD52" s="3"/>
@@ -14411,90 +14437,90 @@
       <c r="AD55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="str">
+      <c r="A56" s="20" t="str">
         <f t="shared" si="8"/>
         <v>XOR B, Lit</v>
       </c>
-      <c r="B56" s="14" t="str">
+      <c r="B56" s="20" t="str">
         <f t="shared" si="4"/>
         <v>00000000001001110010</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="G56" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="I56" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J56" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="K56" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="L56" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="M56" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N56" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="O56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P56" s="15">
+      <c r="F56" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="I56" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N56" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O56" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="P56" s="21">
         <f t="array" ref="P56:R56">+ALU!$B$6:$D$6</f>
         <v>1</v>
       </c>
-      <c r="Q56" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="R56" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="S56" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="T56" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="U56" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="V56" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="W56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X56" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="Y56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Z56" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17"/>
-      <c r="AC56" s="19" t="s">
+      <c r="Q56" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="R56" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="S56" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="T56" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="U56" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="V56" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="X56" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="Y56" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="Z56" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AD56" s="3"/>
@@ -14585,11 +14611,11 @@
       <c r="AD57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="str">
+      <c r="A58" s="33" t="str">
         <f t="shared" si="8"/>
         <v>XOR B, (Dir)</v>
       </c>
-      <c r="B58" s="12" t="str">
+      <c r="B58" s="33" t="str">
         <f t="shared" si="4"/>
         <v>000010000010010000</v>
       </c>
@@ -14602,22 +14628,22 @@
       <c r="E58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G58" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I58" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J58" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K58" s="13">
+      <c r="F58" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G58" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K58" s="34">
         <v>0.0</v>
       </c>
       <c r="L58" s="10">
@@ -14629,7 +14655,7 @@
       <c r="N58" s="10">
         <v>0.0</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="33">
         <v>0.0</v>
       </c>
       <c r="P58" s="8">
@@ -14650,21 +14676,21 @@
       <c r="V58" s="8">
         <v>0.0</v>
       </c>
-      <c r="W58" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X58" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y58" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z58" s="11" t="s">
+      <c r="W58" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="X58" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Z58" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="11" t="s">
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD58" s="3"/>
@@ -14840,10 +14866,10 @@
       <c r="AD60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="12" t="str">
+      <c r="B61" s="33" t="str">
         <f t="shared" si="4"/>
         <v>000011000010010010</v>
       </c>
@@ -14853,25 +14879,25 @@
       <c r="D61" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F61" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G61" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I61" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J61" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K61" s="13">
+      <c r="F61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K61" s="34">
         <v>1.0</v>
       </c>
       <c r="L61" s="10">
@@ -14883,7 +14909,7 @@
       <c r="N61" s="10">
         <v>0.0</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O61" s="33">
         <v>0.0</v>
       </c>
       <c r="P61" s="8">
@@ -14896,195 +14922,195 @@
       <c r="R61" s="8">
         <v>0.0</v>
       </c>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="V61" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="W61" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="X61" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="Y61" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="Z61" s="11"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="V61" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X61" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="Y61" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z61" s="15"/>
       <c r="AA61" s="9" t="s">
         <v>65</v>
       </c>
       <c r="AB61" s="10"/>
-      <c r="AC61" s="12"/>
+      <c r="AC61" s="33"/>
       <c r="AD61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="34" t="str">
+      <c r="A62" s="38" t="str">
         <f>CONCATENATE(C62," ",D62)</f>
         <v>NOT A</v>
       </c>
-      <c r="B62" s="34" t="str">
+      <c r="B62" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00000000001011000100</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I62" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="J62" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M62" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="P62" s="34">
+      <c r="E62" s="39"/>
+      <c r="F62" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H62" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="N62" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="O62" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="P62" s="38">
         <f t="array" ref="P62:R62">+ALU!$B$7:$D$7</f>
         <v>1</v>
       </c>
-      <c r="Q62" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="R62" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="S62" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="T62" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="V62" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="W62" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="X62" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Y62" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Z62" s="35">
+      <c r="Q62" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="R62" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="S62" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="T62" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="U62" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="V62" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="X62" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Z62" s="39">
         <v>1.0</v>
       </c>
       <c r="AB62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AC62" s="38"/>
+      <c r="AC62" s="42"/>
       <c r="AD62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="34" t="str">
+      <c r="B63" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00000000000010010010</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="K63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="M63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="N63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="O63" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="P63" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="Q63" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="R63" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="S63" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="T63" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="V63" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="W63" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="X63" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="Y63" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="Z63" s="35"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="P63" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="Q63" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="R63" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="S63" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="T63" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="U63" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="V63" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="X63" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="Y63" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="Z63" s="39"/>
       <c r="AB63" s="9"/>
-      <c r="AC63" s="38"/>
+      <c r="AC63" s="42"/>
       <c r="AD63" s="3"/>
     </row>
     <row r="64">
@@ -15173,177 +15199,177 @@
       <c r="AD64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="34" t="str">
+      <c r="A65" s="38" t="str">
         <f t="shared" si="9"/>
         <v>NOT (Dir), A</v>
       </c>
-      <c r="B65" s="34" t="str">
+      <c r="B65" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00011000001011000001</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G65" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I65" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="J65" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K65" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L65" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M65" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="O65" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="P65" s="34">
+      <c r="F65" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H65" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="K65" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="N65" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="O65" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="P65" s="38">
         <f t="array" ref="P65:R65">+ALU!$B$7:$D$7</f>
         <v>1</v>
       </c>
-      <c r="Q65" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="R65" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="S65" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="T65" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="V65" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="W65" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="X65" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Y65" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Z65" s="35">
+      <c r="Q65" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="R65" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="S65" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="T65" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="U65" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="V65" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="X65" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="Z65" s="39">
         <v>1.0</v>
       </c>
       <c r="AB65" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AC65" s="38"/>
+      <c r="AC65" s="42"/>
       <c r="AD65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="34" t="str">
+      <c r="A66" s="38" t="str">
         <f>CONCATENATE(C66," ",D66)</f>
         <v>SHL A</v>
       </c>
-      <c r="B66" s="34" t="str">
+      <c r="B66" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00000000001101000100</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G66" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I66" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="K66" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L66" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M66" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="O66" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="P66" s="34">
+      <c r="E66" s="39"/>
+      <c r="F66" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G66" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="N66" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="O66" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="P66" s="38">
         <f t="array" ref="P66:R66">+ALU!$B$8:$D$8</f>
         <v>1</v>
       </c>
-      <c r="Q66" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R66" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="S66" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="T66" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="V66" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="W66" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="X66" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Y66" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Z66" s="35">
+      <c r="Q66" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="R66" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="S66" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="T66" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="U66" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="V66" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="X66" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Z66" s="39">
         <v>1.0</v>
       </c>
       <c r="AB66" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AC66" s="38"/>
+      <c r="AC66" s="42"/>
       <c r="AD66" s="3"/>
     </row>
     <row r="67">
@@ -15432,431 +15458,431 @@
       <c r="AD67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="34" t="str">
+      <c r="A68" s="38" t="str">
         <f t="shared" si="10"/>
         <v>SHL (Dir), A</v>
       </c>
-      <c r="B68" s="34" t="str">
+      <c r="B68" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00011000001101000001</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G68" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I68" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="J68" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K68" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M68" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="O68" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="P68" s="34">
+      <c r="F68" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G68" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="J68" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="K68" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="N68" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="O68" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="P68" s="38">
         <f t="array" ref="P68:R68">+ALU!$B$8:$D$8</f>
         <v>1</v>
       </c>
-      <c r="Q68" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R68" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="S68" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="T68" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="V68" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="W68" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="X68" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Y68" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Z68" s="35">
+      <c r="Q68" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="R68" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="S68" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="T68" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="U68" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="X68" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="Z68" s="39">
         <v>1.0</v>
       </c>
       <c r="AB68" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AC68" s="38"/>
+      <c r="AC68" s="42"/>
       <c r="AD68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="34" t="str">
+      <c r="A69" s="38" t="str">
         <f>CONCATENATE(C69," ",D69)</f>
         <v>SHR A</v>
       </c>
-      <c r="B69" s="34" t="str">
+      <c r="B69" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00000000001111000100</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G69" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="J69" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="K69" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L69" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M69" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N69" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="O69" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="P69" s="34">
+      <c r="E69" s="39"/>
+      <c r="F69" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="O69" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="P69" s="38">
         <f t="array" ref="P69:R69">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q69" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R69" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="S69" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="T69" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="V69" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="W69" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="X69" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Y69" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Z69" s="35">
+      <c r="Q69" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="R69" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="S69" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="T69" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="U69" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="V69" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="X69" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Z69" s="39">
         <v>1.0</v>
       </c>
       <c r="AB69" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AC69" s="38"/>
+      <c r="AC69" s="42"/>
       <c r="AD69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="34" t="str">
+      <c r="A70" s="38" t="str">
         <f t="shared" ref="A70:A71" si="11">CONCATENATE(C70," ",D70,", ",E70)</f>
         <v>SHR B, A</v>
       </c>
-      <c r="B70" s="34" t="str">
+      <c r="B70" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00000000001111000010</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G70" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I70" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="J70" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="K70" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L70" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M70" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N70" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="O70" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="P70" s="34">
+      <c r="F70" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="J70" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="O70" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="P70" s="38">
         <f t="array" ref="P70:R70">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q70" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R70" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="S70" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="T70" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="V70" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="W70" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="X70" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="Y70" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Z70" s="35">
+      <c r="Q70" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="R70" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="S70" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="T70" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="U70" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="V70" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="X70" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="Y70" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Z70" s="39">
         <v>1.0</v>
       </c>
       <c r="AB70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="34" t="str">
+      <c r="A71" s="38" t="str">
         <f t="shared" si="11"/>
         <v>SHR (Dir), A</v>
       </c>
-      <c r="B71" s="34" t="str">
+      <c r="B71" s="38" t="str">
         <f t="shared" si="4"/>
         <v>00011000001111000001</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="G71" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="I71" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="J71" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K71" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L71" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="M71" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N71" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="O71" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="P71" s="34">
+      <c r="F71" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="G71" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H71" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="J71" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="K71" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="N71" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="O71" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="P71" s="38">
         <f t="array" ref="P71:R71">+ALU!$B$9:$D$9</f>
         <v>1</v>
       </c>
-      <c r="Q71" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R71" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="S71" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="T71" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="U71" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="V71" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="W71" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="X71" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="Y71" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Z71" s="35">
+      <c r="Q71" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="R71" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="S71" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="T71" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="U71" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="V71" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="W71" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="X71" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="Z71" s="39">
         <v>1.0</v>
       </c>
       <c r="AB71" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AC71" s="38"/>
+      <c r="AC71" s="42"/>
       <c r="AD71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="20" t="str">
+      <c r="A72" s="26" t="str">
         <f t="shared" ref="A72:A76" si="12">CONCATENATE(C72," ",D72)</f>
         <v>INC A</v>
       </c>
-      <c r="B72" s="20" t="str">
+      <c r="B72" s="26" t="str">
         <f t="shared" si="4"/>
         <v>000000000000010100</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G72" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="I72" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="J72" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K72" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L72" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M72" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N72" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O72" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P72" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Q72" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="R72" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S72" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="T72" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="X72" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Y72" s="20">
+      <c r="E72" s="27"/>
+      <c r="F72" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="G72" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="N72" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="O72" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="P72" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="R72" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="S72" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="T72" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="X72" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" s="26">
         <v>0.0</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AB72" s="25" t="s">
+      <c r="AB72" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="AC72" s="11" t="s">
+      <c r="AC72" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD72" s="3"/>
@@ -15915,10 +15941,10 @@
       <c r="R73" s="2">
         <v>0.0</v>
       </c>
-      <c r="S73" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="T73" s="38">
+      <c r="S73" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="T73" s="42">
         <v>1.0</v>
       </c>
       <c r="U73" s="2">
@@ -15945,124 +15971,127 @@
       <c r="AD73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="12" t="str">
+      <c r="A74" s="16" t="str">
         <f t="shared" si="12"/>
         <v>INC (Dir)</v>
       </c>
-      <c r="B74" s="12" t="str">
+      <c r="B74" s="16" t="str">
         <f t="shared" si="4"/>
         <v>00000000000000111001</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G74" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H74" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I74" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J74" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K74" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="L74" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M74" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="N74" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="O74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Q74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="R74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="S74" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="T74" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="U74" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="V74" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="W74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X74" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y74" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="Z74" s="1" t="s">
+      <c r="E74" s="16"/>
+      <c r="F74" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G74" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H74" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I74" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O74" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="P74" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="R74" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="S74" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="T74" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="U74" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="V74" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="W74" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="X74" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="Z74" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="AB74" s="11" t="s">
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AC74" s="11" t="s">
+      <c r="AC74" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AD74" s="3"/>
+      <c r="AD74" s="18" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="12" t="str">
+      <c r="A75" s="33" t="str">
         <f t="shared" si="12"/>
         <v>INC (B)</v>
       </c>
-      <c r="B75" s="12" t="str">
+      <c r="B75" s="33" t="str">
         <f t="shared" si="4"/>
         <v>0000000000000</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G75" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H75" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I75" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J75" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K75" s="13">
+      <c r="E75" s="33"/>
+      <c r="F75" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G75" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H75" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="34">
         <v>0.0</v>
       </c>
       <c r="L75" s="10">
@@ -16074,44 +16103,44 @@
       <c r="N75" s="10">
         <v>0.0</v>
       </c>
-      <c r="O75" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P75" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Q75" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="R75" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
+      <c r="O75" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="P75" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="R75" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="33"/>
       <c r="Z75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AB75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC75" s="11" t="s">
+      <c r="AB75" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC75" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AD75" s="17"/>
-      <c r="AE75" s="14"/>
-      <c r="AF75" s="14"/>
+      <c r="AD75" s="23"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
     </row>
     <row r="76">
-      <c r="A76" s="12" t="str">
+      <c r="A76" s="33" t="str">
         <f t="shared" si="12"/>
         <v>DEC A</v>
       </c>
-      <c r="B76" s="12" t="str">
+      <c r="B76" s="33" t="str">
         <f t="shared" si="4"/>
         <v>00000000000011011000</v>
       </c>
@@ -16122,22 +16151,22 @@
         <v>28</v>
       </c>
       <c r="E76" s="8"/>
-      <c r="F76" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G76" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H76" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I76" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J76" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K76" s="13">
+      <c r="F76" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G76" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H76" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I76" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="34">
         <v>0.0</v>
       </c>
       <c r="L76" s="10">
@@ -16149,16 +16178,16 @@
       <c r="N76" s="10">
         <v>0.0</v>
       </c>
-      <c r="O76" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P76" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="Q76" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="R76" s="41">
+      <c r="O76" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="P76" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="R76" s="45">
         <v>1.0</v>
       </c>
       <c r="S76" s="8">
@@ -16167,28 +16196,28 @@
       <c r="T76" s="8">
         <v>0.0</v>
       </c>
-      <c r="U76" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="V76" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="W76" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X76" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y76" s="12">
+      <c r="U76" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="V76" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="W76" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="X76" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" s="33">
         <v>0.0</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AB76" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC76" s="11" t="s">
+      <c r="AB76" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC76" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD76" s="3"/>
@@ -16362,39 +16391,39 @@
       <c r="AD78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="12" t="str">
+      <c r="A79" s="33" t="str">
         <f t="shared" si="13"/>
         <v>CMP A, (Dir)</v>
       </c>
-      <c r="B79" s="12" t="str">
+      <c r="B79" s="33" t="str">
         <f t="shared" si="4"/>
         <v>00000000000011011000</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F79" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G79" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H79" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I79" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J79" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K79" s="13">
+      <c r="F79" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G79" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H79" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="34">
         <v>0.0</v>
       </c>
       <c r="L79" s="10">
@@ -16406,81 +16435,81 @@
       <c r="N79" s="10">
         <v>0.0</v>
       </c>
-      <c r="O79" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P79" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Q79" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="R79" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="S79" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="T79" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="U79" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="V79" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="W79" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X79" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y79" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z79" s="12"/>
+      <c r="O79" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="P79" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="R79" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="S79" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="T79" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="U79" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="V79" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="W79" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="X79" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Z79" s="33"/>
       <c r="AA79" s="3"/>
-      <c r="AB79" s="12"/>
-      <c r="AC79" s="11" t="s">
+      <c r="AB79" s="33"/>
+      <c r="AC79" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AD79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="12" t="str">
+      <c r="A80" s="33" t="str">
         <f t="shared" si="13"/>
         <v>CMP A, (B)</v>
       </c>
-      <c r="B80" s="12" t="str">
+      <c r="B80" s="33" t="str">
         <f t="shared" si="4"/>
         <v>0000000000001</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="G80" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H80" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I80" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J80" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="K80" s="13">
+      <c r="F80" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="G80" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="H80" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K80" s="34">
         <v>0.0</v>
       </c>
       <c r="L80" s="10">
@@ -16492,29 +16521,29 @@
       <c r="N80" s="10">
         <v>0.0</v>
       </c>
-      <c r="O80" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P80" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Q80" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="R80" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="12"/>
-      <c r="Z80" s="12"/>
+      <c r="O80" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="P80" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="R80" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="S80" s="33"/>
+      <c r="T80" s="33"/>
+      <c r="U80" s="33"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="33"/>
+      <c r="X80" s="33"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="33"/>
       <c r="AA80" s="3"/>
-      <c r="AB80" s="12"/>
-      <c r="AC80" s="11"/>
+      <c r="AB80" s="33"/>
+      <c r="AC80" s="15"/>
       <c r="AD80" s="3"/>
     </row>
     <row r="81">
@@ -16580,7 +16609,7 @@
       <c r="U81" s="2">
         <v>0.0</v>
       </c>
-      <c r="V81" s="42">
+      <c r="V81" s="46">
         <v>0.0</v>
       </c>
       <c r="W81" s="2">
@@ -16661,7 +16690,7 @@
       <c r="U82" s="2">
         <v>0.0</v>
       </c>
-      <c r="V82" s="42">
+      <c r="V82" s="46">
         <v>0.0</v>
       </c>
       <c r="W82" s="2">
@@ -16743,7 +16772,7 @@
       <c r="U83" s="2">
         <v>0.0</v>
       </c>
-      <c r="V83" s="42">
+      <c r="V83" s="46">
         <v>0.0</v>
       </c>
       <c r="W83" s="2">
@@ -16825,7 +16854,7 @@
       <c r="U84" s="2">
         <v>0.0</v>
       </c>
-      <c r="V84" s="42">
+      <c r="V84" s="46">
         <v>0.0</v>
       </c>
       <c r="W84" s="2">
@@ -16907,7 +16936,7 @@
       <c r="U85" s="2">
         <v>0.0</v>
       </c>
-      <c r="V85" s="42">
+      <c r="V85" s="46">
         <v>0.0</v>
       </c>
       <c r="W85" s="2">
@@ -16989,7 +17018,7 @@
       <c r="U86" s="2">
         <v>0.0</v>
       </c>
-      <c r="V86" s="42">
+      <c r="V86" s="46">
         <v>0.0</v>
       </c>
       <c r="W86" s="2">
@@ -17071,7 +17100,7 @@
       <c r="U87" s="2">
         <v>0.0</v>
       </c>
-      <c r="V87" s="42">
+      <c r="V87" s="46">
         <v>0.0</v>
       </c>
       <c r="W87" s="2">
@@ -17153,7 +17182,7 @@
       <c r="U88" s="2">
         <v>0.0</v>
       </c>
-      <c r="V88" s="42">
+      <c r="V88" s="46">
         <v>0.0</v>
       </c>
       <c r="W88" s="2">
@@ -17174,17 +17203,17 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10100100000000000001</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1">
         <v>1.0</v>
@@ -17195,7 +17224,7 @@
       <c r="H89" s="1">
         <v>1.0</v>
       </c>
-      <c r="I89" s="43">
+      <c r="I89" s="47">
         <v>0.0</v>
       </c>
       <c r="J89" s="1">
@@ -17249,14 +17278,14 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="4"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F90" s="1">
         <v>0.0</v>
@@ -17319,10 +17348,13 @@
         <v>0.0</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="4"/>
         <v>00000100000000000000</v>
@@ -17333,7 +17365,7 @@
       <c r="G91" s="1">
         <v>0.0</v>
       </c>
-      <c r="H91" s="43">
+      <c r="H91" s="47">
         <v>0.0</v>
       </c>
       <c r="I91" s="1">
@@ -17388,19 +17420,19 @@
         <v>0.0</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10010100000000000001</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>28</v>
@@ -17471,14 +17503,14 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10010100000000010001</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>29</v>
@@ -17549,14 +17581,14 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="4"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>28</v>
@@ -17625,10 +17657,13 @@
         <v>64</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="4"/>
         <v>00010100000000011100</v>
@@ -17694,19 +17729,19 @@
         <v>0.0</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="str">
         <f t="shared" si="4"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>29</v>
@@ -17775,10 +17810,13 @@
         <v>64</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="4"/>
         <v>00010100000000011010</v>
@@ -17844,7 +17882,7 @@
         <v>0.0</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99">
@@ -17852,16 +17890,16 @@
         <v>1.0</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J99" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="K99" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L99" s="44" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="J99" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="K99" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="L99" s="48" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="100">
@@ -17869,37 +17907,37 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J100" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="K100" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L100" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J100" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="K100" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="L100" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="101">
-      <c r="J101" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="K101" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="L101" s="44" t="s">
+      <c r="J101" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="L101" s="48" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="102">
-      <c r="J102" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="K102" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="L102" s="44" t="s">
+      <c r="J102" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="K102" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="L102" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -17932,7 +17970,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -17941,15 +17979,15 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2">
         <v>0.0</v>
@@ -17958,7 +17996,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -17966,7 +18004,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -17975,7 +18013,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
@@ -17983,7 +18021,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -17994,49 +18032,49 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="44">
+      <c r="F6" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="48">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="E7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="44">
+      <c r="E7" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="48">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -18044,19 +18082,19 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="44">
+      <c r="F8" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="48">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2">
         <v>0.0</v>
@@ -18064,19 +18102,19 @@
       <c r="C9" s="2">
         <v>0.0</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="44">
+      <c r="E9" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="48">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2">
         <v>0.0</v>
@@ -18087,7 +18125,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -18096,15 +18134,15 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2">
         <v>1.0</v>
@@ -18113,7 +18151,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F12" s="1">
         <v>1.0</v>
@@ -18121,7 +18159,7 @@
     </row>
     <row r="13">
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F13" s="1">
         <v>0.0</v>
@@ -18129,7 +18167,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -18137,7 +18175,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2">
         <v>0.0</v>
@@ -18145,7 +18183,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -18153,7 +18191,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -18161,7 +18199,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2">
         <v>0.0</v>
@@ -18169,7 +18207,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -18178,15 +18216,15 @@
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2">
         <v>0.0</v>
@@ -18194,7 +18232,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -19199,7 +19237,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>

--- a/Instrucciones-computador.xlsx
+++ b/Instrucciones-computador.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="138">
   <si>
     <t>Assambler inst</t>
   </si>
@@ -300,13 +300,10 @@
     <t>sub A,1</t>
   </si>
   <si>
-    <t>CALL Dir</t>
+    <t>CALL Ins</t>
   </si>
   <si>
     <t>CALL</t>
-  </si>
-  <si>
-    <t>Dir</t>
   </si>
   <si>
     <t>RET</t>
@@ -17212,8 +17209,8 @@
       <c r="C89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>95</v>
+      <c r="D89" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F89" s="1">
         <v>1.0</v>
@@ -17278,82 +17275,82 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="4"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB90" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="V90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="W90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Y90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB90" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17420,19 +17417,19 @@
         <v>0.0</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10010100000000000001</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>28</v>
@@ -17503,14 +17500,14 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10010100000000010001</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>29</v>
@@ -17581,14 +17578,14 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="4"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>28</v>
@@ -17657,12 +17654,12 @@
         <v>64</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17729,19 +17726,19 @@
         <v>0.0</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="str">
         <f t="shared" si="4"/>
         <v>01000000000000000000</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>29</v>
@@ -17810,12 +17807,12 @@
         <v>64</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="4"/>
@@ -17882,7 +17879,7 @@
         <v>0.0</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
@@ -17890,16 +17887,16 @@
         <v>1.0</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J99" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="K99" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="L99" s="48" t="s">
         <v>110</v>
-      </c>
-      <c r="J99" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="K99" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="L99" s="48" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="100">
@@ -17907,7 +17904,7 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J100" s="48">
         <v>1.0</v>
@@ -17970,7 +17967,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -17979,24 +17976,24 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -18004,16 +18001,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
@@ -18021,7 +18018,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -18032,27 +18029,27 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="G5" s="48" t="s">
         <v>123</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="48">
         <v>1.0</v>
@@ -18063,7 +18060,7 @@
     </row>
     <row r="7">
       <c r="E7" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="48">
         <v>1.0</v>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -18094,7 +18091,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2">
         <v>0.0</v>
@@ -18103,7 +18100,7 @@
         <v>0.0</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="48">
         <v>0.0</v>
@@ -18114,7 +18111,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2">
         <v>0.0</v>
@@ -18125,33 +18122,33 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="F12" s="1">
         <v>1.0</v>
@@ -18159,7 +18156,7 @@
     </row>
     <row r="13">
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="1">
         <v>0.0</v>
@@ -18167,7 +18164,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -18175,7 +18172,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2">
         <v>0.0</v>
@@ -18183,7 +18180,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2">
         <v>1.0</v>
@@ -18191,7 +18188,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -18199,7 +18196,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2">
         <v>0.0</v>
@@ -18207,7 +18204,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2">
         <v>1.0</v>
@@ -18216,15 +18213,15 @@
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2">
         <v>0.0</v>
@@ -18232,7 +18229,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2">
         <v>1.0</v>
@@ -19237,7 +19234,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
